--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITLOAIT\Documents\GitHub\OrionLogger\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459DF803-E611-4951-B148-4B7B72136DA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274635DA-C2D8-412F-91FB-949293E77E9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Strumenti" sheetId="1" r:id="rId1"/>
-    <sheet name="Wattmeter" sheetId="2" r:id="rId2"/>
-    <sheet name="Agilent" sheetId="3" r:id="rId3"/>
-    <sheet name="Inverter" sheetId="4" r:id="rId4"/>
+    <sheet name="Grafico" sheetId="5" r:id="rId2"/>
+    <sheet name="Wattmeter" sheetId="2" r:id="rId3"/>
+    <sheet name="Agilent" sheetId="3" r:id="rId4"/>
+    <sheet name="Inverter" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="114">
   <si>
     <t>ELENCO STRUMENTI</t>
   </si>
@@ -36,9 +37,6 @@
     <t>PERCORSO OUTPUT</t>
   </si>
   <si>
-    <t>logger</t>
-  </si>
-  <si>
     <t>CHANNEL</t>
   </si>
   <si>
@@ -340,6 +338,39 @@
   </si>
   <si>
     <t>CASSETTO 34980</t>
+  </si>
+  <si>
+    <t>C:\Users\ITLOAIT\Desktop\rrr\</t>
+  </si>
+  <si>
+    <t>TEMPO CAMPIONAMENTO</t>
+  </si>
+  <si>
+    <t>TEST TIME</t>
+  </si>
+  <si>
+    <t>PLOT</t>
+  </si>
+  <si>
+    <t>ASSE</t>
+  </si>
+  <si>
+    <t>Asse temperature</t>
+  </si>
+  <si>
+    <t>Asse tensioni</t>
+  </si>
+  <si>
+    <t>Asse correnti</t>
+  </si>
+  <si>
+    <t>Asse potenze</t>
+  </si>
+  <si>
+    <t>Asse di testo</t>
+  </si>
+  <si>
+    <t>REFRESH TIME</t>
   </si>
 </sst>
 </file>
@@ -882,31 +913,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1"/>
     </row>
   </sheetData>
@@ -916,6 +962,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB766F66-FBF0-4401-9E03-22064F37D651}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
@@ -939,37 +1067,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -977,277 +1105,277 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11">
       <c r="F3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11">
       <c r="F4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11">
       <c r="F5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11">
       <c r="F6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:11">
       <c r="F7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:11">
       <c r="F8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="F9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="F10" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="F11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="H11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="F12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="H12" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="F13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="H13" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="F14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="H14" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="F15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="F16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="17" spans="6:9">
       <c r="F17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="I17" s="8"/>
     </row>
@@ -1255,96 +1383,96 @@
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
       <c r="H18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="19" spans="6:9">
       <c r="F19" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="20" spans="6:9">
       <c r="F20" s="9"/>
       <c r="G20" s="12"/>
       <c r="H20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="21" spans="6:9">
       <c r="H21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="22" spans="6:9">
       <c r="H22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="23" spans="6:9">
       <c r="H23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="24" spans="6:9">
       <c r="H24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="25" spans="6:9">
       <c r="H25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="26" spans="6:9">
       <c r="H26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="27" spans="6:9">
       <c r="H27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="28" spans="6:9">
       <c r="H28" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1353,12 +1481,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1374,25 +1502,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
         <v>102</v>
       </c>
-      <c r="B1" t="s">
-        <v>103</v>
-      </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>74</v>
-      </c>
-      <c r="G1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1403,19 +1531,19 @@
         <v>1001</v>
       </c>
       <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
         <v>76</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" t="s">
         <v>78</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>79</v>
-      </c>
-      <c r="G2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1426,16 +1554,16 @@
         <v>1002</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s">
         <v>81</v>
-      </c>
-      <c r="F3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1446,10 +1574,10 @@
         <v>1003</v>
       </c>
       <c r="F4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
         <v>83</v>
-      </c>
-      <c r="G4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1460,10 +1588,10 @@
         <v>1004</v>
       </c>
       <c r="F5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s">
         <v>85</v>
-      </c>
-      <c r="G5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1474,10 +1602,10 @@
         <v>1005</v>
       </c>
       <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
         <v>87</v>
-      </c>
-      <c r="G6" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1488,10 +1616,10 @@
         <v>1006</v>
       </c>
       <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
         <v>89</v>
-      </c>
-      <c r="G7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1502,13 +1630,13 @@
         <v>1007</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1519,13 +1647,13 @@
         <v>1008</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2068,11 +2196,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2086,34 +2214,34 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>94</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>97</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="C3" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="C4" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITLOAIT\Documents\GitHub\OrionLogger\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274635DA-C2D8-412F-91FB-949293E77E9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E86ED3-F651-4953-98E4-E57E9934D3EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Strumenti" sheetId="1" r:id="rId1"/>
     <sheet name="Grafico" sheetId="5" r:id="rId2"/>
-    <sheet name="Wattmeter" sheetId="2" r:id="rId3"/>
-    <sheet name="Agilent" sheetId="3" r:id="rId4"/>
-    <sheet name="Inverter" sheetId="4" r:id="rId5"/>
+    <sheet name="Bridge" sheetId="6" r:id="rId3"/>
+    <sheet name="Wattmeter" sheetId="2" r:id="rId4"/>
+    <sheet name="Agilent" sheetId="3" r:id="rId5"/>
+    <sheet name="Inverter" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="168">
   <si>
     <t>ELENCO STRUMENTI</t>
   </si>
@@ -371,6 +372,168 @@
   </si>
   <si>
     <t>REFRESH TIME</t>
+  </si>
+  <si>
+    <t>Bridge</t>
+  </si>
+  <si>
+    <t>PORTA BRIDGE</t>
+  </si>
+  <si>
+    <t>GPIB0::17::INSTR</t>
+  </si>
+  <si>
+    <t>FREQUENZA</t>
+  </si>
+  <si>
+    <t>Freq. Min di partenza</t>
+  </si>
+  <si>
+    <t>Freq. Max di partenza</t>
+  </si>
+  <si>
+    <t>Sampling di freq.</t>
+  </si>
+  <si>
+    <t>CPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPQ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Impedance Parameter Type to “Cp-Q”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPG </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Impedance Parameter Type to “Cp-G”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPRP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Impedance Parameter Type to “Cp-Rp”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSD </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Impedance Parameter Type to “Cs-D”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSQ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Impedance Parameter Type to “Cs-Q”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSRS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Impedance Parameter Type to “Cs-Rs”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPD </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Impedance Parameter Type to “Lp-D”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPQ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Impedance Parameter Type to “Lp-Q”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPG </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Impedance Parameter Type to “Lp-G”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPRP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Impedance Parameter Type to “Lp-Rp”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Impedance Parameter Type to “Lp-Rdc”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSD </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Impedance Parameter Type to “Ls-D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSQ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Impedance Parameter Type to 'Ls-Q'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSRS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Impedance Parameter Type to “Ls-Rs”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Impedance Parameter Type to “Ls-Rdc”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RX </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Impedance Parameter Type to “R-X”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZTD </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Impedance Parameter Type to “Z-thd”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZTR </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Impedance Parameter Type to “Z-thr”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Impedance Parameter Type to “G-B”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YTD </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Impedance Parameter Type to “Y-thd”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YTR </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Impedance Parameter Type to “Y-thr”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VDID </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Impedance Parameter Type to “Vdc-Idc”</t>
+  </si>
+  <si>
+    <t>the Impedance Parameter Type to “Cp-D”</t>
+  </si>
+  <si>
+    <t>CSD</t>
+  </si>
+  <si>
+    <t>LPRD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSRD </t>
   </si>
 </sst>
 </file>
@@ -915,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -942,14 +1105,17 @@
       </c>
     </row>
     <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
       <c r="B2" t="s">
         <v>103</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -965,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB766F66-FBF0-4401-9E03-22064F37D651}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1044,11 +1210,271 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCE3F72-A82B-43C8-A199-D908A3F357E6}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="F5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="F6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="F7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="F8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="F9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="F10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="F11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="F12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="F13" t="s">
+        <v>166</v>
+      </c>
+      <c r="G13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="F14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="F15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="F16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7">
+      <c r="F17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7">
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7">
+      <c r="F19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7">
+      <c r="F20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7">
+      <c r="F21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7">
+      <c r="F22" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7">
+      <c r="F23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7">
+      <c r="F24" t="s">
+        <v>162</v>
+      </c>
+      <c r="G24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1481,12 +1907,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F1" sqref="F1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -2196,7 +2622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ4"/>
   <sheetViews>

--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITLOAIT\Documents\GitHub\OrionLogger\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E86ED3-F651-4953-98E4-E57E9934D3EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F4AC3A-BF30-4A10-8A02-7F5A939E75CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Strumenti" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="168">
   <si>
     <t>ELENCO STRUMENTI</t>
   </si>
@@ -1078,7 +1078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1213,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCE3F72-A82B-43C8-A199-D908A3F357E6}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1287,9 +1287,6 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>132</v>
-      </c>
       <c r="C4">
         <v>100</v>
       </c>

--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITLOAIT\Documents\GitHub\OrionLogger\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F4AC3A-BF30-4A10-8A02-7F5A939E75CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1B0E4B-B687-4969-976A-D6D959568836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,16 @@
     <sheet name="Agilent" sheetId="3" r:id="rId5"/>
     <sheet name="Inverter" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -30,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="170">
   <si>
     <t>ELENCO STRUMENTI</t>
   </si>
@@ -401,132 +409,63 @@
     <t xml:space="preserve">CPQ </t>
   </si>
   <si>
-    <t xml:space="preserve"> the Impedance Parameter Type to “Cp-Q”</t>
-  </si>
-  <si>
     <t xml:space="preserve">CPG </t>
   </si>
   <si>
-    <t xml:space="preserve"> the Impedance Parameter Type to “Cp-G”</t>
-  </si>
-  <si>
     <t xml:space="preserve">CPRP </t>
   </si>
   <si>
-    <t xml:space="preserve"> the Impedance Parameter Type to “Cp-Rp”</t>
-  </si>
-  <si>
     <t xml:space="preserve">CSD </t>
   </si>
   <si>
-    <t xml:space="preserve"> the Impedance Parameter Type to “Cs-D”</t>
-  </si>
-  <si>
     <t xml:space="preserve">CSQ </t>
   </si>
   <si>
-    <t xml:space="preserve"> the Impedance Parameter Type to “Cs-Q”</t>
-  </si>
-  <si>
     <t xml:space="preserve">CSRS </t>
   </si>
   <si>
-    <t xml:space="preserve"> the Impedance Parameter Type to “Cs-Rs”</t>
-  </si>
-  <si>
     <t xml:space="preserve">LPD </t>
   </si>
   <si>
-    <t xml:space="preserve"> the Impedance Parameter Type to “Lp-D”</t>
-  </si>
-  <si>
     <t xml:space="preserve">LPQ </t>
   </si>
   <si>
-    <t xml:space="preserve"> the Impedance Parameter Type to “Lp-Q”</t>
-  </si>
-  <si>
     <t xml:space="preserve">LPG </t>
   </si>
   <si>
-    <t xml:space="preserve"> the Impedance Parameter Type to “Lp-G”</t>
-  </si>
-  <si>
     <t xml:space="preserve">LPRP </t>
   </si>
   <si>
-    <t xml:space="preserve"> the Impedance Parameter Type to “Lp-Rp”</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Impedance Parameter Type to “Lp-Rdc”</t>
-  </si>
-  <si>
     <t xml:space="preserve">LSD </t>
   </si>
   <si>
-    <t xml:space="preserve"> the Impedance Parameter Type to “Ls-D</t>
-  </si>
-  <si>
     <t xml:space="preserve">LSQ </t>
   </si>
   <si>
-    <t xml:space="preserve"> the Impedance Parameter Type to 'Ls-Q'</t>
-  </si>
-  <si>
     <t xml:space="preserve">LSRS </t>
   </si>
   <si>
-    <t xml:space="preserve"> the Impedance Parameter Type to “Ls-Rs”</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Impedance Parameter Type to “Ls-Rdc”</t>
-  </si>
-  <si>
     <t xml:space="preserve">RX </t>
   </si>
   <si>
-    <t xml:space="preserve"> the Impedance Parameter Type to “R-X”</t>
-  </si>
-  <si>
     <t xml:space="preserve">ZTD </t>
   </si>
   <si>
-    <t xml:space="preserve"> the Impedance Parameter Type to “Z-thd”</t>
-  </si>
-  <si>
     <t xml:space="preserve">ZTR </t>
   </si>
   <si>
-    <t xml:space="preserve"> the Impedance Parameter Type to “Z-thr”</t>
-  </si>
-  <si>
     <t xml:space="preserve">GB </t>
   </si>
   <si>
-    <t xml:space="preserve"> the Impedance Parameter Type to “G-B”</t>
-  </si>
-  <si>
     <t xml:space="preserve">YTD </t>
   </si>
   <si>
-    <t xml:space="preserve"> the Impedance Parameter Type to “Y-thd”</t>
-  </si>
-  <si>
     <t xml:space="preserve">YTR </t>
   </si>
   <si>
-    <t xml:space="preserve"> the Impedance Parameter Type to “Y-thr”</t>
-  </si>
-  <si>
     <t xml:space="preserve">VDID </t>
   </si>
   <si>
-    <t xml:space="preserve"> the Impedance Parameter Type to “Vdc-Idc”</t>
-  </si>
-  <si>
-    <t>the Impedance Parameter Type to “Cp-D”</t>
-  </si>
-  <si>
     <t>CSD</t>
   </si>
   <si>
@@ -534,6 +473,81 @@
   </si>
   <si>
     <t xml:space="preserve">LSRD </t>
+  </si>
+  <si>
+    <t>Step the Impedance Parameter Type to “Cp-D”</t>
+  </si>
+  <si>
+    <t>Step the Impedance Parameter Type to “Cp-Q”</t>
+  </si>
+  <si>
+    <t>Step the Impedance Parameter Type to “Cp-G”</t>
+  </si>
+  <si>
+    <t>Step the Impedance Parameter Type to “Cp-Rp”</t>
+  </si>
+  <si>
+    <t>Step the Impedance Parameter Type to “Cs-D”</t>
+  </si>
+  <si>
+    <t>Step the Impedance Parameter Type to “Cs-Q”</t>
+  </si>
+  <si>
+    <t>Step the Impedance Parameter Type to “Cs-Rs”</t>
+  </si>
+  <si>
+    <t>Step the Impedance Parameter Type to “Lp-D”</t>
+  </si>
+  <si>
+    <t>Step the Impedance Parameter Type to “Lp-Q”</t>
+  </si>
+  <si>
+    <t>Step the Impedance Parameter Type to “Lp-G”</t>
+  </si>
+  <si>
+    <t>Step the Impedance Parameter Type to “Lp-Rp”</t>
+  </si>
+  <si>
+    <t>Step the Impedance Parameter Type to “Lp-Rdc”</t>
+  </si>
+  <si>
+    <t>Step the Impedance Parameter Type to “Ls-D</t>
+  </si>
+  <si>
+    <t>Step the Impedance Parameter Type to 'Ls-Q'</t>
+  </si>
+  <si>
+    <t>Step the Impedance Parameter Type to “Ls-Rs”</t>
+  </si>
+  <si>
+    <t>Step the Impedance Parameter Type to “Ls-Rdc”</t>
+  </si>
+  <si>
+    <t>Step the Impedance Parameter Type to “R-X”</t>
+  </si>
+  <si>
+    <t>Step the Impedance Parameter Type to “Z-thd”</t>
+  </si>
+  <si>
+    <t>Step the Impedance Parameter Type to “Z-thr”</t>
+  </si>
+  <si>
+    <t>Step the Impedance Parameter Type to “G-B”</t>
+  </si>
+  <si>
+    <t>Step the Impedance Parameter Type to “Y-thd”</t>
+  </si>
+  <si>
+    <t>Step the Impedance Parameter Type to “Y-thr”</t>
+  </si>
+  <si>
+    <t>Step the Impedance Parameter Type to “Vdc-Idc”</t>
+  </si>
+  <si>
+    <t>CSQ</t>
+  </si>
+  <si>
+    <t>CPQ</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1093,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1214,7 +1228,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1223,7 +1237,7 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1266,12 +1280,12 @@
         <v>121</v>
       </c>
       <c r="G2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="C3">
         <v>1000</v>
@@ -1283,181 +1297,187 @@
         <v>122</v>
       </c>
       <c r="G3" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
       <c r="C4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
         <v>120</v>
       </c>
       <c r="F4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" t="s">
         <v>124</v>
       </c>
-      <c r="G4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="F5" t="s">
-        <v>126</v>
-      </c>
       <c r="G5" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="F6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G6" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="F7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G7" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="F8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G8" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="F9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G9" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="F10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="F11" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="F12" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="F13" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="F14" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="F15" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="F16" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G16" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="G17" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="6:7">
       <c r="F18" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="G18" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="G19" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="6:7">
       <c r="F20" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="G20" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G21" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="6:7">
       <c r="F22" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="G22" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="G23" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="6:7">
       <c r="F24" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="G24" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITLOAIT\Documents\GitHub\OrionLogger\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1B0E4B-B687-4969-976A-D6D959568836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486967F2-AFD4-4D7F-98EE-A8ACE9FB2C7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Strumenti" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="184">
   <si>
     <t>ELENCO STRUMENTI</t>
   </si>
@@ -466,9 +466,6 @@
     <t xml:space="preserve">VDID </t>
   </si>
   <si>
-    <t>CSD</t>
-  </si>
-  <si>
     <t>LPRD</t>
   </si>
   <si>
@@ -544,10 +541,56 @@
     <t>Step the Impedance Parameter Type to “Vdc-Idc”</t>
   </si>
   <si>
-    <t>CSQ</t>
-  </si>
-  <si>
-    <t>CPQ</t>
+    <t>LEVEL</t>
+  </si>
+  <si>
+    <t>MEAS TIME</t>
+  </si>
+  <si>
+    <t>MED</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>CORRECTION</t>
+  </si>
+  <si>
+    <t>SHOR</t>
+  </si>
+  <si>
+    <t>LONG</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>LOAD</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>[numero] + V/A se il livello è 
+in tensione o in corrente</t>
   </si>
 </sst>
 </file>
@@ -691,7 +734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -708,6 +751,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1093,7 +1169,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1225,259 +1301,362 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCE3F72-A82B-43C8-A199-D908A3F357E6}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="F1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:14" ht="29.4" thickBot="1">
+      <c r="A2" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C2">
+      <c r="B2" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="19">
         <v>100</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="N2" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="F2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="D3" s="19">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="21">
+        <v>50</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="24"/>
+      <c r="I4" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" thickBot="1">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="K5" s="24"/>
+      <c r="L5" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C3">
-        <v>1000</v>
-      </c>
-      <c r="D3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>169</v>
-      </c>
-      <c r="F5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="F6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="F7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="F8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="F9" t="s">
-        <v>128</v>
-      </c>
-      <c r="G9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="F10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="F11" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="F12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="C13" s="20" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="F13" t="s">
+    <row r="14" spans="1:14">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="G13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="F14" t="s">
-        <v>132</v>
-      </c>
-      <c r="G14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="F15" t="s">
-        <v>133</v>
-      </c>
-      <c r="G15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="F16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="C17" s="20" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="6:7">
-      <c r="F17" t="s">
-        <v>144</v>
-      </c>
-      <c r="G17" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="6:7">
-      <c r="F18" t="s">
-        <v>135</v>
-      </c>
-      <c r="G18" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="6:7">
-      <c r="F19" t="s">
-        <v>136</v>
-      </c>
-      <c r="G19" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="6:7">
-      <c r="F20" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="6:7">
-      <c r="F21" t="s">
-        <v>138</v>
-      </c>
-      <c r="G21" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="6:7">
-      <c r="F22" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="6:7">
-      <c r="F23" t="s">
-        <v>140</v>
-      </c>
-      <c r="G23" t="s">
+    <row r="24" spans="1:3" ht="15" thickBot="1">
+      <c r="A24" s="24"/>
+      <c r="B24" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="6:7">
-      <c r="F24" t="s">
-        <v>141</v>
-      </c>
-      <c r="G24" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITLOAIT\Documents\GitHub\OrionLogger\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486967F2-AFD4-4D7F-98EE-A8ACE9FB2C7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0376E5B-C79B-45EB-81F7-90C28E4FBBA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Strumenti" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Wattmeter" sheetId="2" r:id="rId4"/>
     <sheet name="Agilent" sheetId="3" r:id="rId5"/>
     <sheet name="Inverter" sheetId="4" r:id="rId6"/>
+    <sheet name="AC Station" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="191">
   <si>
     <t>ELENCO STRUMENTI</t>
   </si>
@@ -591,13 +592,34 @@
   <si>
     <t>[numero] + V/A se il livello è 
 in tensione o in corrente</t>
+  </si>
+  <si>
+    <t>PORTA</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>METER1 VL1</t>
+  </si>
+  <si>
+    <t>METER1 VL2</t>
+  </si>
+  <si>
+    <t>METER1 VL3</t>
+  </si>
+  <si>
+    <t>REGISTRO</t>
+  </si>
+  <si>
+    <t>502-RTU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -629,6 +651,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1303,7 +1331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCE3F72-A82B-43C8-A199-D908A3F357E6}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -2870,4 +2898,71 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073EBEDE-603A-4744-AA10-6C9743035A2C}">
+  <dimension ref="A1:AMJ4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11" style="13" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="1024" width="9.109375" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1626</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
 </file>
--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITLOAIT\Documents\GitHub\OrionLogger\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0376E5B-C79B-45EB-81F7-90C28E4FBBA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FCC37E-BDA4-4BB4-8F30-AE530EFFC0D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Strumenti" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Wattmeter" sheetId="2" r:id="rId4"/>
     <sheet name="Agilent" sheetId="3" r:id="rId5"/>
     <sheet name="Inverter" sheetId="4" r:id="rId6"/>
-    <sheet name="AC Station" sheetId="8" r:id="rId7"/>
+    <sheet name="Colonnina" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="192">
   <si>
     <t>ELENCO STRUMENTI</t>
   </si>
@@ -613,13 +613,16 @@
   </si>
   <si>
     <t>502-RTU</t>
+  </si>
+  <si>
+    <t>CORRECTION LENGTH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -657,6 +660,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -762,7 +772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -810,6 +820,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1329,10 +1342,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCE3F72-A82B-43C8-A199-D908A3F357E6}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1350,11 +1363,13 @@
     <col min="11" max="11" width="12.109375" style="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.88671875" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="17"/>
+    <col min="14" max="14" width="18.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -1394,11 +1409,17 @@
       <c r="M1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="29.4" thickBot="1">
+    <row r="2" spans="1:16" ht="29.4" thickBot="1">
       <c r="A2" s="18" t="s">
         <v>121</v>
       </c>
@@ -1430,7 +1451,7 @@
         <v>170</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>177</v>
@@ -1438,11 +1459,17 @@
       <c r="M2" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="19">
+        <v>1</v>
+      </c>
+      <c r="O2" s="20">
+        <v>0</v>
+      </c>
+      <c r="P2" s="17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:16">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
         <v>122</v>
@@ -1463,15 +1490,21 @@
       <c r="J3" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="K3" s="18"/>
+      <c r="K3" s="18" t="s">
+        <v>174</v>
+      </c>
       <c r="L3" s="19" t="s">
         <v>174</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
+      <c r="N3" s="19"/>
+      <c r="O3" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" thickBot="1">
       <c r="A4" s="18"/>
       <c r="B4" s="19" t="s">
         <v>123</v>
@@ -1499,8 +1532,12 @@
       <c r="M4" s="20" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
+      <c r="N4" s="19"/>
+      <c r="O4" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" thickBot="1">
       <c r="A5" s="18"/>
       <c r="B5" s="19" t="s">
         <v>124</v>
@@ -1515,8 +1552,12 @@
       <c r="M5" s="23" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="N5" s="21"/>
+      <c r="O5" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="18"/>
       <c r="B6" s="19" t="s">
         <v>125</v>
@@ -1525,7 +1566,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:16">
       <c r="A7" s="18"/>
       <c r="B7" s="19" t="s">
         <v>126</v>
@@ -1534,7 +1575,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:16">
       <c r="A8" s="18"/>
       <c r="B8" s="19" t="s">
         <v>127</v>
@@ -1543,7 +1584,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:16">
       <c r="A9" s="18"/>
       <c r="B9" s="19" t="s">
         <v>128</v>
@@ -1552,7 +1593,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:16">
       <c r="A10" s="18"/>
       <c r="B10" s="19" t="s">
         <v>129</v>
@@ -1561,7 +1602,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:16">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
         <v>130</v>
@@ -1570,7 +1611,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:16">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>131</v>
@@ -1579,7 +1620,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:16">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
         <v>142</v>
@@ -1588,7 +1629,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:16">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
         <v>132</v>
@@ -1597,7 +1638,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:16">
       <c r="A15" s="18"/>
       <c r="B15" s="19" t="s">
         <v>133</v>
@@ -1606,7 +1647,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:16">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
         <v>134</v>
@@ -1626,7 +1667,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="18"/>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="25" t="s">
         <v>135</v>
       </c>
       <c r="C18" s="20" t="s">
@@ -1653,7 +1694,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="18"/>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="25" t="s">
         <v>138</v>
       </c>
       <c r="C21" s="20" t="s">
@@ -2904,7 +2945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073EBEDE-603A-4744-AA10-6C9743035A2C}">
   <dimension ref="A1:AMJ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITLOAIT\Documents\GitHub\OrionLogger\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FCC37E-BDA4-4BB4-8F30-AE530EFFC0D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B7CCCC-E2AF-48D4-BC2F-6D219444A5C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" tabRatio="599" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Strumenti" sheetId="1" r:id="rId1"/>
     <sheet name="Grafico" sheetId="5" r:id="rId2"/>
     <sheet name="Bridge" sheetId="6" r:id="rId3"/>
     <sheet name="Wattmeter" sheetId="2" r:id="rId4"/>
-    <sheet name="Agilent" sheetId="3" r:id="rId5"/>
-    <sheet name="Inverter" sheetId="4" r:id="rId6"/>
-    <sheet name="Colonnina" sheetId="8" r:id="rId7"/>
+    <sheet name="Wattmeter2" sheetId="9" r:id="rId5"/>
+    <sheet name="Agilent" sheetId="3" r:id="rId6"/>
+    <sheet name="Inverter" sheetId="4" r:id="rId7"/>
+    <sheet name="Colonnina" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="192">
   <si>
     <t>ELENCO STRUMENTI</t>
   </si>
@@ -1344,7 +1345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCE3F72-A82B-43C8-A199-D908A3F357E6}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -1739,7 +1740,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -2173,6 +2174,444 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B04F6D-AF54-42D2-85DA-AD8D09AC3DAF}">
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="34.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="34.5546875" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="34.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="F3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="F4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="F5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="F6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="F7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="F8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="F9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="F10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="F11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="F12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="F13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="F14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="F15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1">
+      <c r="F16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9">
+      <c r="F17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="6:9">
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9">
+      <c r="F19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" ht="15" thickBot="1">
+      <c r="F20" s="9"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9">
+      <c r="H21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9">
+      <c r="H22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9">
+      <c r="H23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9">
+      <c r="H24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="6:9">
+      <c r="H25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="6:9">
+      <c r="H26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="6:9">
+      <c r="H27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="6:9" ht="15" thickBot="1">
+      <c r="H28" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H81"/>
   <sheetViews>
@@ -2887,7 +3326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ4"/>
   <sheetViews>
@@ -2941,7 +3380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073EBEDE-603A-4744-AA10-6C9743035A2C}">
   <dimension ref="A1:AMJ4"/>
   <sheetViews>

--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITLOAIT\Documents\GitHub\OrionLogger\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B7CCCC-E2AF-48D4-BC2F-6D219444A5C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3ED770-50C9-4DDF-863B-E4B07D6C92E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" tabRatio="599" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Strumenti" sheetId="1" r:id="rId1"/>
@@ -384,9 +384,6 @@
     <t>REFRESH TIME</t>
   </si>
   <si>
-    <t>Bridge</t>
-  </si>
-  <si>
     <t>PORTA BRIDGE</t>
   </si>
   <si>
@@ -617,6 +614,9 @@
   </si>
   <si>
     <t>CORRECTION LENGTH</t>
+  </si>
+  <si>
+    <t>Colonnina</t>
   </si>
 </sst>
 </file>
@@ -1210,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
         <v>103</v>
@@ -1381,19 +1381,19 @@
         <v>74</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>74</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>74</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>73</v>
@@ -1402,7 +1402,7 @@
         <v>74</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L1" s="15" t="s">
         <v>73</v>
@@ -1411,54 +1411,54 @@
         <v>74</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O1" s="16" t="s">
         <v>73</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="29.4" thickBot="1">
       <c r="A2" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" s="19">
         <v>100</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F2" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="G2" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="M2" s="20" t="s">
         <v>177</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>178</v>
       </c>
       <c r="N2" s="19">
         <v>1</v>
@@ -1467,38 +1467,38 @@
         <v>0</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="19">
         <v>1000</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="M3" s="20" t="s">
         <v>169</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>170</v>
       </c>
       <c r="N3" s="19"/>
       <c r="O3" s="20">
@@ -1508,30 +1508,30 @@
     <row r="4" spans="1:16" ht="15" thickBot="1">
       <c r="A4" s="18"/>
       <c r="B4" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="21">
         <v>50</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H4" s="24"/>
       <c r="I4" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="M4" s="20" t="s">
         <v>179</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>180</v>
       </c>
       <c r="N4" s="19"/>
       <c r="O4" s="20">
@@ -1541,17 +1541,17 @@
     <row r="5" spans="1:16" ht="15" thickBot="1">
       <c r="A5" s="18"/>
       <c r="B5" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K5" s="24"/>
       <c r="L5" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M5" s="23" t="s">
         <v>181</v>
-      </c>
-      <c r="M5" s="23" t="s">
-        <v>182</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="23">
@@ -1561,172 +1561,172 @@
     <row r="6" spans="1:16">
       <c r="A6" s="18"/>
       <c r="B6" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="18"/>
       <c r="B7" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="18"/>
       <c r="B8" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="18"/>
       <c r="B9" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="18"/>
       <c r="B10" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="18"/>
       <c r="B15" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="18"/>
       <c r="B18" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="18"/>
       <c r="B20" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="18"/>
       <c r="B21" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="18"/>
       <c r="B23" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1">
       <c r="A24" s="24"/>
       <c r="B24" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2177,7 +2177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B04F6D-AF54-42D2-85DA-AD8D09AC3DAF}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -3398,16 +3398,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3415,10 +3415,10 @@
         <v>95</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D2" s="13">
         <v>1618</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="C3" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D3" s="13">
         <v>1622</v>
@@ -3434,7 +3434,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="C4" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D4" s="13">
         <v>1626</v>

--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITLOAIT\Documents\GitHub\OrionLogger\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3ED770-50C9-4DDF-863B-E4B07D6C92E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A490973-0A5D-48AF-A215-BA9DB28AA638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="191">
   <si>
     <t>ELENCO STRUMENTI</t>
   </si>
@@ -349,9 +349,6 @@
   </si>
   <si>
     <t>CASSETTO 34980</t>
-  </si>
-  <si>
-    <t>C:\Users\ITLOAIT\Desktop\rrr\</t>
   </si>
   <si>
     <t>TEMPO CAMPIONAMENTO</t>
@@ -1211,7 +1208,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1230,18 +1227,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
         <v>104</v>
-      </c>
-      <c r="D1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1278,13 +1272,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
         <v>106</v>
       </c>
-      <c r="B1" t="s">
-        <v>107</v>
-      </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
         <v>73</v>
@@ -1301,7 +1295,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1309,7 +1303,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1317,7 +1311,7 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1325,7 +1319,7 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1333,7 +1327,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1381,19 +1375,19 @@
         <v>74</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>74</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>74</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>73</v>
@@ -1402,7 +1396,7 @@
         <v>74</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L1" s="15" t="s">
         <v>73</v>
@@ -1411,54 +1405,54 @@
         <v>74</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O1" s="16" t="s">
         <v>73</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="29.4" thickBot="1">
       <c r="A2" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="19">
         <v>100</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F2" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="G2" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="M2" s="20" t="s">
         <v>176</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>177</v>
       </c>
       <c r="N2" s="19">
         <v>1</v>
@@ -1467,38 +1461,38 @@
         <v>0</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D3" s="19">
         <v>1000</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="M3" s="20" t="s">
         <v>168</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>169</v>
       </c>
       <c r="N3" s="19"/>
       <c r="O3" s="20">
@@ -1508,30 +1502,30 @@
     <row r="4" spans="1:16" ht="15" thickBot="1">
       <c r="A4" s="18"/>
       <c r="B4" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="21">
         <v>50</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H4" s="24"/>
       <c r="I4" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="M4" s="20" t="s">
         <v>178</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>179</v>
       </c>
       <c r="N4" s="19"/>
       <c r="O4" s="20">
@@ -1541,17 +1535,17 @@
     <row r="5" spans="1:16" ht="15" thickBot="1">
       <c r="A5" s="18"/>
       <c r="B5" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K5" s="24"/>
       <c r="L5" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="M5" s="23" t="s">
         <v>180</v>
-      </c>
-      <c r="M5" s="23" t="s">
-        <v>181</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="23">
@@ -1561,172 +1555,172 @@
     <row r="6" spans="1:16">
       <c r="A6" s="18"/>
       <c r="B6" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="18"/>
       <c r="B7" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="18"/>
       <c r="B8" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="18"/>
       <c r="B9" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="18"/>
       <c r="B10" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="18"/>
       <c r="B15" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="18"/>
       <c r="B18" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="18"/>
       <c r="B20" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="18"/>
       <c r="B21" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="18"/>
       <c r="B23" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1">
       <c r="A24" s="24"/>
       <c r="B24" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3398,16 +3392,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3415,10 +3409,10 @@
         <v>95</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D2" s="13">
         <v>1618</v>
@@ -3426,7 +3420,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="C3" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D3" s="13">
         <v>1622</v>
@@ -3434,7 +3428,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="C4" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D4" s="13">
         <v>1626</v>

--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITLOAIT\Documents\GitHub\OrionLogger\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A490973-0A5D-48AF-A215-BA9DB28AA638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17828498-0496-42BD-B96A-353DE27ACB11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="194">
   <si>
     <t>ELENCO STRUMENTI</t>
   </si>
@@ -613,7 +613,16 @@
     <t>CORRECTION LENGTH</t>
   </si>
   <si>
-    <t>Colonnina</t>
+    <t>NOME FILE</t>
+  </si>
+  <si>
+    <t>FileBrige</t>
+  </si>
+  <si>
+    <t>NOME OUTPUT</t>
+  </si>
+  <si>
+    <t>PIPPO</t>
   </si>
 </sst>
 </file>
@@ -1205,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1217,9 +1226,10 @@
     <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1232,19 +1242,22 @@
       <c r="D1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>190</v>
-      </c>
+      <c r="E1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
     </row>
   </sheetData>
@@ -1337,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCE3F72-A82B-43C8-A199-D908A3F357E6}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1361,10 +1374,11 @@
     <col min="14" max="14" width="18.5546875" style="17" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.88671875" style="17" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="17"/>
+    <col min="17" max="17" width="10.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -1413,8 +1427,11 @@
       <c r="P1" s="17" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="29.4" thickBot="1">
+      <c r="Q1" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="29.4" thickBot="1">
       <c r="A2" s="18" t="s">
         <v>119</v>
       </c>
@@ -1463,8 +1480,11 @@
       <c r="P2" s="17" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
         <v>120</v>
@@ -1499,7 +1519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" thickBot="1">
+    <row r="4" spans="1:17" ht="15" thickBot="1">
       <c r="A4" s="18"/>
       <c r="B4" s="19" t="s">
         <v>121</v>
@@ -1532,7 +1552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" thickBot="1">
+    <row r="5" spans="1:17" ht="15" thickBot="1">
       <c r="A5" s="18"/>
       <c r="B5" s="19" t="s">
         <v>122</v>
@@ -1552,7 +1572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" s="18"/>
       <c r="B6" s="19" t="s">
         <v>123</v>
@@ -1561,7 +1581,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" s="18"/>
       <c r="B7" s="19" t="s">
         <v>124</v>
@@ -1570,7 +1590,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" s="18"/>
       <c r="B8" s="19" t="s">
         <v>125</v>
@@ -1579,7 +1599,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" s="18"/>
       <c r="B9" s="19" t="s">
         <v>126</v>
@@ -1588,7 +1608,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" s="18"/>
       <c r="B10" s="19" t="s">
         <v>127</v>
@@ -1597,7 +1617,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
         <v>128</v>
@@ -1606,7 +1626,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>129</v>
@@ -1615,7 +1635,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
         <v>140</v>
@@ -1624,7 +1644,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
         <v>130</v>
@@ -1633,7 +1653,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="A15" s="18"/>
       <c r="B15" s="19" t="s">
         <v>131</v>
@@ -1642,7 +1662,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
         <v>132</v>

--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITLOAIT\Documents\GitHub\OrionLogger\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17828498-0496-42BD-B96A-353DE27ACB11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717F00BF-A3DB-419D-B4D7-64903A784218}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" tabRatio="599" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Strumenti" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="215">
   <si>
     <t>ELENCO STRUMENTI</t>
   </si>
@@ -595,21 +595,9 @@
     <t>IP</t>
   </si>
   <si>
-    <t>METER1 VL1</t>
-  </si>
-  <si>
-    <t>METER1 VL2</t>
-  </si>
-  <si>
-    <t>METER1 VL3</t>
-  </si>
-  <si>
     <t>REGISTRO</t>
   </si>
   <si>
-    <t>502-RTU</t>
-  </si>
-  <si>
     <t>CORRECTION LENGTH</t>
   </si>
   <si>
@@ -623,6 +611,81 @@
   </si>
   <si>
     <t>PIPPO</t>
+  </si>
+  <si>
+    <t>COM4</t>
+  </si>
+  <si>
+    <t>Colonnina</t>
+  </si>
+  <si>
+    <t>MODALITA'</t>
+  </si>
+  <si>
+    <t>RTU</t>
+  </si>
+  <si>
+    <t>Sensore di Temperatura</t>
+  </si>
+  <si>
+    <t>MeterX L1voltage</t>
+  </si>
+  <si>
+    <t>MeterX L2voltage</t>
+  </si>
+  <si>
+    <t>MeterX L3voltage</t>
+  </si>
+  <si>
+    <t>MeterX L1current</t>
+  </si>
+  <si>
+    <t>MeterX L2current</t>
+  </si>
+  <si>
+    <t>MeterX L3current</t>
+  </si>
+  <si>
+    <t>MeterX L1power</t>
+  </si>
+  <si>
+    <t>MeterX L2power</t>
+  </si>
+  <si>
+    <t>MeterX L3power</t>
+  </si>
+  <si>
+    <t>MeterX Total active power</t>
+  </si>
+  <si>
+    <t>MeterX Total reactive power</t>
+  </si>
+  <si>
+    <t>MeterX Total apparent power</t>
+  </si>
+  <si>
+    <t>MeterX Total apparent Freq</t>
+  </si>
+  <si>
+    <t>MeterX activeImport_kwh</t>
+  </si>
+  <si>
+    <t>MeterX activeExport_kwh</t>
+  </si>
+  <si>
+    <t>MeterX reactiveImport_kwh</t>
+  </si>
+  <si>
+    <t>MeterX reactiveExport_kwh</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>ac station -&gt; address = 2</t>
+  </si>
+  <si>
+    <t>wallbox -&gt; address = 1</t>
   </si>
 </sst>
 </file>
@@ -1216,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C17:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1243,10 +1306,13 @@
         <v>104</v>
       </c>
       <c r="E1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>191</v>
+      </c>
       <c r="C2">
         <v>1</v>
       </c>
@@ -1254,7 +1320,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1419,7 +1485,7 @@
         <v>74</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O1" s="16" t="s">
         <v>73</v>
@@ -1428,7 +1494,7 @@
         <v>113</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="29.4" thickBot="1">
@@ -1481,7 +1547,7 @@
         <v>114</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3396,21 +3462,22 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073EBEDE-603A-4744-AA10-6C9743035A2C}">
-  <dimension ref="A1:AMJ4"/>
+  <dimension ref="A1:AMM19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.88671875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="11" style="13" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="1024" width="9.109375" style="13"/>
+    <col min="2" max="4" width="11" style="13" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="1027" width="9.109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="13" t="s">
         <v>183</v>
       </c>
@@ -3418,45 +3485,186 @@
         <v>182</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="G1" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>188</v>
+        <v>190</v>
+      </c>
+      <c r="B2" s="13">
+        <v>502</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="D2" s="13">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="G2" s="13">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="E3" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3" s="13">
         <v>1618</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="C3" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="13">
+    <row r="4" spans="1:7">
+      <c r="F4" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="13">
         <v>1622</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="C4" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="D4" s="13">
+    <row r="5" spans="1:7">
+      <c r="F5" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5" s="13">
         <v>1626</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="F6" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="F7" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="F8" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="F9" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="F10" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="13">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="F11" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="F12" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="F13" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="F14" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="F15" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="F16" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G16" s="13">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7">
+      <c r="F17" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="G17" s="13">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7">
+      <c r="F18" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7">
+      <c r="F19" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="G19" s="13">
+        <v>1686</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITLOAIT\Documents\GitHub\OrionLogger\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717F00BF-A3DB-419D-B4D7-64903A784218}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715B50B8-9AD1-4389-B944-6E7CD51664D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" tabRatio="599" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Strumenti" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="216">
   <si>
     <t>ELENCO STRUMENTI</t>
   </si>
@@ -610,21 +610,12 @@
     <t>NOME OUTPUT</t>
   </si>
   <si>
-    <t>PIPPO</t>
-  </si>
-  <si>
-    <t>COM4</t>
-  </si>
-  <si>
     <t>Colonnina</t>
   </si>
   <si>
     <t>MODALITA'</t>
   </si>
   <si>
-    <t>RTU</t>
-  </si>
-  <si>
     <t>Sensore di Temperatura</t>
   </si>
   <si>
@@ -686,6 +677,18 @@
   </si>
   <si>
     <t>wallbox -&gt; address = 1</t>
+  </si>
+  <si>
+    <t>TCP</t>
+  </si>
+  <si>
+    <t>10.21.47.250</t>
+  </si>
+  <si>
+    <t>C:\Users\ITLOAIT\Desktop\rrr\</t>
+  </si>
+  <si>
+    <t>TestColonnineTCP</t>
   </si>
 </sst>
 </file>
@@ -842,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -895,6 +898,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1279,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C17:C18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1289,7 +1298,7 @@
     <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1311,16 +1320,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>189</v>
+      </c>
+      <c r="B2" t="s">
+        <v>214</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3600</v>
       </c>
       <c r="E2" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2258,7 +2270,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -3464,8 +3476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073EBEDE-603A-4744-AA10-6C9743035A2C}">
   <dimension ref="A1:AMM19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3485,12 +3497,12 @@
         <v>182</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="E1" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>74</v>
       </c>
       <c r="F1" s="13" t="s">
@@ -3502,33 +3514,34 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="13" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="B2" s="13">
         <v>502</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D2" s="13">
-        <v>1</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
+      </c>
+      <c r="D2" s="28">
+        <v>2</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>211</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G2" s="13">
         <v>1372</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="E3" s="13" t="s">
-        <v>213</v>
+    <row r="3" spans="1:7" ht="15" thickBot="1">
+      <c r="D3" s="30"/>
+      <c r="E3" s="31" t="s">
+        <v>210</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G3" s="13">
         <v>1618</v>
@@ -3536,7 +3549,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="F4" s="13" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G4" s="13">
         <v>1622</v>
@@ -3544,7 +3557,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="F5" s="13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G5" s="13">
         <v>1626</v>
@@ -3552,7 +3565,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="F6" s="13" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G6" s="13">
         <v>1630</v>
@@ -3560,7 +3573,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="F7" s="13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G7" s="13">
         <v>1634</v>
@@ -3568,7 +3581,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="F8" s="13" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G8" s="13">
         <v>1638</v>
@@ -3576,7 +3589,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="F9" s="13" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G9" s="13">
         <v>1642</v>
@@ -3584,7 +3597,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="F10" s="13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G10" s="13">
         <v>1646</v>
@@ -3592,7 +3605,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="F11" s="13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G11" s="13">
         <v>1650</v>
@@ -3600,7 +3613,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="F12" s="13" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G12" s="13">
         <v>1654</v>
@@ -3608,7 +3621,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="F13" s="13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G13" s="13">
         <v>1658</v>
@@ -3616,7 +3629,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="F14" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G14" s="13">
         <v>1662</v>
@@ -3624,7 +3637,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="F15" s="13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G15" s="13">
         <v>1666</v>
@@ -3632,7 +3645,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="F16" s="13" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G16" s="13">
         <v>1674</v>
@@ -3640,7 +3653,7 @@
     </row>
     <row r="17" spans="6:7">
       <c r="F17" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G17" s="13">
         <v>1678</v>
@@ -3648,7 +3661,7 @@
     </row>
     <row r="18" spans="6:7">
       <c r="F18" s="13" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G18" s="13">
         <v>1682</v>
@@ -3656,7 +3669,7 @@
     </row>
     <row r="19" spans="6:7">
       <c r="F19" s="13" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G19" s="13">
         <v>1686</v>

--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITLOAIT\Documents\GitHub\OrionLogger\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715B50B8-9AD1-4389-B944-6E7CD51664D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CCD837-FB03-41C8-82C0-3858E7EDB4B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="599" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Strumenti" sheetId="1" r:id="rId1"/>
@@ -688,7 +688,7 @@
     <t>C:\Users\ITLOAIT\Desktop\rrr\</t>
   </si>
   <si>
-    <t>TestColonnineTCP</t>
+    <t>TestColonnineTCP+WT</t>
   </si>
 </sst>
 </file>
@@ -1288,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1298,7 +1298,7 @@
     <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2269,8 +2269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B04F6D-AF54-42D2-85DA-AD8D09AC3DAF}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -2282,9 +2282,9 @@
     <col min="6" max="6" width="13.88671875" customWidth="1"/>
     <col min="7" max="7" width="34.5546875" customWidth="1"/>
     <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="34.5546875" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="34.5546875" customWidth="1"/>
+    <col min="9" max="9" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">

--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -899,8 +899,6 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>10</t>
@@ -961,7 +959,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>abc</t>
+          <t>q1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -971,7 +969,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>300</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -959,7 +959,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>q1</t>
+          <t>qwerty</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -3,13 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="390" yWindow="390" windowWidth="13170" windowHeight="14025" tabRatio="600" firstSheet="2" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Colonnina" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bridge" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grafico" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Strumenti" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inverter" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Agilent" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wattmeter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wattmeter2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -19,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -39,9 +43,23 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="8"/>
-      <scheme val="minor"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -55,12 +73,72 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -103,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -111,12 +189,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -482,10 +575,14 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12.7109375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="27.5703125" bestFit="1" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -522,7 +619,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10.21.47.250</t>
+          <t>10.21.36.254</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -757,6 +854,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -772,7 +870,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -882,17 +980,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>PLOT</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>ASSE</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>REFRESH TIME</t>
         </is>
@@ -925,56 +1023,1181 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>ELENCO STRUMENTI</t>
+        </is>
+      </c>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>NOME OUTPUT</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>TEMPO CAMPIONAMENTO</t>
+        </is>
+      </c>
+      <c r="D1" s="8" t="inlineStr">
+        <is>
+          <t>TEST TIME</t>
+        </is>
+      </c>
+      <c r="E1" s="8" t="inlineStr">
+        <is>
+          <t>PERCORSO OUTPUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100000000000</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="11.7109375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="10.85546875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="26.140625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="9.28515625" bestFit="1" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>ELENCO STRUMENTI</t>
+          <t>IP DEVICE</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>NOME OUTPUT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>TEMPO CAMPIONAMENTO</t>
+          <t>TELEMETRIE</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>TEST TIME</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>PERCORSO OUTPUT</t>
+          <t>LABEL</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Colonnina</t>
+          <t>10.21.36.241</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>qwerty</t>
+          <t>2105L10299</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>/supervisor/obj/main_state</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Stato_Inv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="30.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>CASSETTO 34970</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>PORTA DAQ</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>TIPOLOGIA</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>LABEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TCPIP0::10.21.37.51::inst0::INSTR</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1_Main Switch Cable Out</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>202</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2_Main Switch Body</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>203</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3_Main Switch Cable In</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>204</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4_ Tamb Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>205</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5_PCB F1904.1_Power Cable</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>206</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6_Tamb PCB</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>207</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7_PCB V4AO2.1_Capacitors</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>208</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8_Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>209</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9_PCB_L44</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>210</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10_PCB_Chip</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>211</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11_Internal Probe DX</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>212</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12_Contactor DX_tie cable</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>213</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13_L2 Bocchetta SX</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>214</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14_Morsettiera DX</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>215</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15_Tamb Probe</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>216</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16_Alimentatore Fronte</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>217</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17_Alimentatore Alto</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>218</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18_PCB Relè_Relè</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>219</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19_PCB Relè_Pista</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>220</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20_Breaker SX_PhS</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>301</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>21_Breaker DX_PhS</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>302</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>22_Differenziale DX_Body</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>303</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>23_Differenziale DX_Body</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>304</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>24_Meter SX</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>305</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>25_Meter DX</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>306</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>26_Contactor SX_PhT</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>307</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>27_Contactor DX_PhT</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>308</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>28_Breaker AUX_PhR</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>309</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>29_Tamb High</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>310</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>30_Contactor SX_Body</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>311</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>31_Contactor DX_Body</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>312</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>32_Breaker AUX_Body</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>313</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>33_PCB LED Bocchetta SX</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>314</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>34_LED Ext Bocchetta SX</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>315</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>35_PCB LED Bocchetta DX</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>316</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>36_LED Ext Bocchetta DX</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>317</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>37_RFID EXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>318</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>38_LCD EXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>319</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>39_Tamb Ext</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>320</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>40_PCB LCD</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="G1:J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>PORTA WT</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>MODELLO</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>CHANNEL</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>TIPOLOGIA</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>LABEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPIB0::2::INSTR</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>WT500</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>URMS</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>C:\Users\ITLOAIT\Desktop\rrr\</t>
+          <t>U R INV2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>IRMS</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>I R INV2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>P R INV2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>URMS</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>U S INV2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>IRMS</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>I S INV2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>P S INV2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>URMS</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>U T INV2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>IRMS</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>I T INV2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>P T INV2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>PORTA WT</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>MODELLO</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>CHANNEL</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>TIPOLOGIA</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>LABEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPIB0::3::INSTR</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>WT500</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>URMS</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>U R INV1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>IRMS</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>I R INV1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>P R INV1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>URMS</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>U S INV1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>IRMS</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>I S INV1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>P S INV1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>URMS</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>U T INV1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>IRMS</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>I T INV1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>P T INV1</t>
         </is>
       </c>
     </row>

--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="390" yWindow="390" windowWidth="13170" windowHeight="14025" tabRatio="600" firstSheet="2" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Colonnina" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bridge" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grafico" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Strumenti" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inverter" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Agilent" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wattmeter" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wattmeter2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Colonnina" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Bridge" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Grafico" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Strumenti" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Inverter" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Agilent" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Wattmeter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Wattmeter2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>100000000000</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>

--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -8,35 +8,76 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITLOAIT\Documents\GitHub\OrionLogger\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0A36F0-5882-4689-96B0-94D02751CB2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F01D68D-6B59-4435-B156-EDC070C84752}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Strumenti" sheetId="4" r:id="rId1"/>
+    <sheet name="Strumenti" sheetId="1" r:id="rId1"/>
     <sheet name="Bridge" sheetId="2" r:id="rId2"/>
-    <sheet name="Colonnina" sheetId="1" r:id="rId3"/>
-    <sheet name="Inverter" sheetId="5" r:id="rId4"/>
-    <sheet name="Agilent" sheetId="6" r:id="rId5"/>
-    <sheet name="Wattmeter" sheetId="7" r:id="rId6"/>
-    <sheet name="misc" sheetId="8" r:id="rId7"/>
+    <sheet name="Colonnina" sheetId="3" r:id="rId3"/>
+    <sheet name="Inverter" sheetId="4" r:id="rId4"/>
+    <sheet name="Agilent" sheetId="5" r:id="rId5"/>
+    <sheet name="Wattmeter" sheetId="6" r:id="rId6"/>
+    <sheet name="misc" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="232">
+  <si>
+    <t>ELENCO STRUMENTI</t>
+  </si>
+  <si>
+    <t>NOME OUTPUT</t>
+  </si>
+  <si>
+    <t>TEMPO CAMPIONAMENTO</t>
+  </si>
+  <si>
+    <t>TEST TIME</t>
+  </si>
+  <si>
+    <t>PERCORSO OUTPUT</t>
+  </si>
+  <si>
+    <t>Inverter</t>
+  </si>
+  <si>
+    <t>Cetr</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>TIPOLOGIA</t>
+  </si>
+  <si>
+    <t>LEVEL</t>
+  </si>
+  <si>
+    <t>MEAS TIME</t>
+  </si>
+  <si>
+    <t>CORRECTION LENGTH</t>
+  </si>
+  <si>
+    <t>FREQUENZA</t>
+  </si>
+  <si>
+    <t>CORRECTION</t>
+  </si>
+  <si>
+    <t>PORTA BRIDGE</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
   <si>
     <t>IP</t>
   </si>
@@ -56,6 +97,9 @@
     <t>REGISTRO</t>
   </si>
   <si>
+    <t>TYPE TELEMETRIA</t>
+  </si>
+  <si>
     <t>10.21.36.254</t>
   </si>
   <si>
@@ -65,21 +109,27 @@
     <t>TCP</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Sensore di Temperatura</t>
   </si>
   <si>
     <t>1372</t>
   </si>
   <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>10.21.36.2</t>
+  </si>
+  <si>
     <t>MeterX L1voltage</t>
   </si>
   <si>
     <t>1618</t>
   </si>
   <si>
+    <t>V</t>
+  </si>
+  <si>
     <t>MeterX L2voltage</t>
   </si>
   <si>
@@ -98,6 +148,9 @@
     <t>1630</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>MeterX L2current</t>
   </si>
   <si>
@@ -116,6 +169,9 @@
     <t>1642</t>
   </si>
   <si>
+    <t>P</t>
+  </si>
+  <si>
     <t>MeterX L2power</t>
   </si>
   <si>
@@ -176,48 +232,6 @@
     <t>1686</t>
   </si>
   <si>
-    <t>TIPOLOGIA</t>
-  </si>
-  <si>
-    <t>LEVEL</t>
-  </si>
-  <si>
-    <t>MEAS TIME</t>
-  </si>
-  <si>
-    <t>CORRECTION LENGTH</t>
-  </si>
-  <si>
-    <t>FREQUENZA</t>
-  </si>
-  <si>
-    <t>CORRECTION</t>
-  </si>
-  <si>
-    <t>PORTA BRIDGE</t>
-  </si>
-  <si>
-    <t>ELENCO STRUMENTI</t>
-  </si>
-  <si>
-    <t>NOME OUTPUT</t>
-  </si>
-  <si>
-    <t>TEMPO CAMPIONAMENTO</t>
-  </si>
-  <si>
-    <t>TEST TIME</t>
-  </si>
-  <si>
-    <t>PERCORSO OUTPUT</t>
-  </si>
-  <si>
-    <t>22222222</t>
-  </si>
-  <si>
-    <t>222222222222222222</t>
-  </si>
-  <si>
     <t>IP DEVICE</t>
   </si>
   <si>
@@ -227,198 +241,240 @@
     <t>LABEL</t>
   </si>
   <si>
-    <t>10.21.36.241</t>
-  </si>
-  <si>
-    <t>2105L10299</t>
+    <t>ID_LETTURA INV1</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV2</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV3</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV4</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV5</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV6</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV7</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV8</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV9</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV10</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV11</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV12</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV13</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV14</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV15</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV16</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV17</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV18</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV19</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV20</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV21</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV22</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV23</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV24</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV25</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV26</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV27</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV28</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV29</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV30</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV31</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV32</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV33</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV34</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV35</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV36</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV37</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV38</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV39</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV40</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV41</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV42</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV43</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV44</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV45</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV46</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV47</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV48</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV49</t>
+  </si>
+  <si>
+    <t>ID_LETTURA INV50</t>
+  </si>
+  <si>
+    <t>10.38.34.212</t>
+  </si>
+  <si>
+    <t>grid_phase/main_l1/voltage</t>
+  </si>
+  <si>
+    <t>V ph R</t>
+  </si>
+  <si>
+    <t>10.38.34.226</t>
+  </si>
+  <si>
+    <t>/grid_phase/main_l2/voltage</t>
+  </si>
+  <si>
+    <t>V ph S</t>
+  </si>
+  <si>
+    <t>grid_phase/main_l3/voltage</t>
+  </si>
+  <si>
+    <t>V ph T</t>
+  </si>
+  <si>
+    <t>/grid/main/active_power</t>
+  </si>
+  <si>
+    <t>Pout</t>
+  </si>
+  <si>
+    <t>CASSETTO</t>
+  </si>
+  <si>
+    <t>MODELLO</t>
   </si>
   <si>
     <t>PORTA DAQ</t>
   </si>
   <si>
-    <t>TCPIP0::10.21.37.51::inst0::INSTR</t>
-  </si>
-  <si>
-    <t>T</t>
+    <t>ID_LETTURA DAQ1</t>
+  </si>
+  <si>
+    <t>ID_LETTURA DAQ2</t>
+  </si>
+  <si>
+    <t>ID_LETTURA DAQ3</t>
+  </si>
+  <si>
+    <t>ID_LETTURA DAQ4</t>
+  </si>
+  <si>
+    <t>ID_LETTURA DAQ5</t>
+  </si>
+  <si>
+    <t>ID_LETTURA DAQ6</t>
+  </si>
+  <si>
+    <t>TCPIP0::169.254.9.72::inst0::INSTR</t>
   </si>
   <si>
     <t>1_Main Switch Cable Out</t>
   </si>
   <si>
+    <t>GPIB9::24::INSTR</t>
+  </si>
+  <si>
     <t>2_Main Switch Body</t>
   </si>
   <si>
+    <t>BANANA</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>LAMPONE</t>
+  </si>
+  <si>
     <t>PORTA WT</t>
   </si>
   <si>
-    <t>MODELLO</t>
-  </si>
-  <si>
     <t>CHANNEL</t>
   </si>
   <si>
-    <t>GPIB0::2::INSTR</t>
-  </si>
-  <si>
-    <t>WT500</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>URMS</t>
-  </si>
-  <si>
-    <t>U R INV2</t>
-  </si>
-  <si>
-    <t>IRMS</t>
-  </si>
-  <si>
-    <t>I R INV2</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>P R INV2</t>
-  </si>
-  <si>
-    <t>U S INV2</t>
-  </si>
-  <si>
-    <t>I S INV2</t>
-  </si>
-  <si>
-    <t>P S INV2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>U T INV2</t>
-  </si>
-  <si>
-    <t>I T INV2</t>
-  </si>
-  <si>
-    <t>P T INV2</t>
-  </si>
-  <si>
-    <t>GPIB0::3::INSTR</t>
-  </si>
-  <si>
-    <t>U R INV1</t>
-  </si>
-  <si>
-    <t>I R INV1</t>
-  </si>
-  <si>
-    <t>P R INV1</t>
-  </si>
-  <si>
-    <t>U S INV1</t>
-  </si>
-  <si>
-    <t>I S INV1</t>
-  </si>
-  <si>
-    <t>P S INV1</t>
-  </si>
-  <si>
-    <t>U T INV1</t>
-  </si>
-  <si>
-    <t>I T INV1</t>
-  </si>
-  <si>
-    <t>P T INV1</t>
-  </si>
-  <si>
-    <t>TYPE TELEMETRIA</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>grid_phase/main_l1/voltage</t>
-  </si>
-  <si>
-    <t>Inverter</t>
-  </si>
-  <si>
-    <t>grid_phase/main_l2/voltage</t>
-  </si>
-  <si>
-    <t>Wattmeter</t>
-  </si>
-  <si>
-    <t>ID_LETTURA 1</t>
-  </si>
-  <si>
-    <t>ID_LETTURA 2</t>
-  </si>
-  <si>
-    <t>ID_LETTURA 3</t>
-  </si>
-  <si>
-    <t>ID_LETTURA 4</t>
-  </si>
-  <si>
-    <t>ID_LETTURA 5</t>
-  </si>
-  <si>
-    <t>ID_LETTURA 6</t>
-  </si>
-  <si>
-    <t>ID_LETTURA 7</t>
-  </si>
-  <si>
-    <t>ID_LETTURA 8</t>
-  </si>
-  <si>
-    <t>ID_LETTURA 9</t>
-  </si>
-  <si>
-    <t>ID_LETTURA 10</t>
-  </si>
-  <si>
-    <t>CASSETTO</t>
-  </si>
-  <si>
-    <t>TCPIP0::10.21.37.50::inst0::INSTR</t>
-  </si>
-  <si>
-    <t>BANANA</t>
-  </si>
-  <si>
-    <t>2105L10298</t>
-  </si>
-  <si>
-    <t>10.21.36.24</t>
-  </si>
-  <si>
-    <t>grid_phase/main_l3/voltage</t>
-  </si>
-  <si>
-    <t>V ph R</t>
-  </si>
-  <si>
-    <t>V ph S</t>
-  </si>
-  <si>
-    <t>V ph T</t>
-  </si>
-  <si>
-    <t>RTU</t>
-  </si>
-  <si>
-    <t>10.21.36.2</t>
-  </si>
-  <si>
     <t>ID_LETTURA WT1</t>
   </si>
   <si>
@@ -449,19 +505,55 @@
     <t>ID_LETTURA WT10</t>
   </si>
   <si>
-    <t>ID_LETTURA DAQ1</t>
-  </si>
-  <si>
-    <t>ID_LETTURA DAQ2</t>
-  </si>
-  <si>
-    <t>ID_LETTURA DAQ3</t>
-  </si>
-  <si>
-    <t>ID_LETTURA DAQ4</t>
-  </si>
-  <si>
-    <t>K</t>
+    <t>GPIB9::20::INSTR</t>
+  </si>
+  <si>
+    <t>WT230</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>GPIB9::10::INSTR</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>Tipologia agilent</t>
+  </si>
+  <si>
+    <t>Modello agilent</t>
+  </si>
+  <si>
+    <t>Modello WT</t>
   </si>
   <si>
     <t>OHM</t>
@@ -482,10 +574,154 @@
     <t>IAC</t>
   </si>
   <si>
-    <t>Tipologia agilent</t>
-  </si>
-  <si>
-    <t>Modello agilent</t>
+    <t>ID_LETTURA COL1</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL2</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL3</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL4</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL5</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL6</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL7</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL8</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL9</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL10</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL11</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL12</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL13</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL14</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL15</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL16</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL17</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL18</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL19</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL20</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL21</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL22</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL23</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL24</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL25</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL26</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL27</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL28</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL29</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL30</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL31</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL32</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL33</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL34</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL35</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL36</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL37</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL38</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL39</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL40</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL41</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL42</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL43</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL44</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL45</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL46</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL47</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL48</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL49</t>
+  </si>
+  <si>
+    <t>ID_LETTURA COL50</t>
   </si>
 </sst>
 </file>
@@ -504,26 +740,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -531,16 +766,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -623,15 +869,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -644,9 +902,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -654,6 +909,21 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -957,53 +1227,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>57</v>
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1016,7 +1275,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1031,59 +1290,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>52</v>
+      <c r="A1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1092,11 +1351,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:BE19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1107,85 +1366,204 @@
     <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="16" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="57" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="AN1" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="AO1" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AP1" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ1" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="AR1" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="AS1" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="AT1" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="AU1" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AV1" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="AW1" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="AX1" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="AY1" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="AZ1" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="BA1" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="BB1" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="BC1" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="BD1" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="BE1" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1194,24 +1572,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>502</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1220,15 +1601,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1237,15 +1618,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1254,15 +1635,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1271,15 +1652,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1288,15 +1669,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1305,15 +1686,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1322,15 +1703,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1339,15 +1720,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1356,15 +1737,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1373,15 +1754,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1390,15 +1771,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1407,15 +1788,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1424,15 +1805,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="G16" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1443,13 +1824,13 @@
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" t="s">
         <v>40</v>
-      </c>
-      <c r="F17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" t="s">
-        <v>101</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1460,13 +1841,13 @@
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1477,13 +1858,13 @@
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="G19" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1493,111 +1874,233 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:BC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="55" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="8" t="s">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="AI1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO1" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="AP1" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="AR1" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="AS1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="AT1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="AU1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="AV1" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="AW1" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="AX1" s="7" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="AY1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AZ1" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="BA1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC1" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
+        <v>121</v>
+      </c>
+      <c r="B2">
+        <v>2109122760</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" t="s">
-        <v>119</v>
+        <v>124</v>
+      </c>
+      <c r="B3">
+        <v>2109122761</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1606,17 +2109,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
     </row>
@@ -1626,59 +2146,63 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.21875" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="A1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="K1" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -1688,13 +2212,13 @@
         <v>34970</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1708,13 +2232,13 @@
         <v>34970</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1725,48 +2249,45 @@
         <v>201</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>101</v>
+      </c>
+      <c r="D5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3B27DBE3-E7CC-4F97-9EB5-B665C8AA5C32}">
-          <x14:formula1>
-            <xm:f>misc!$A$2:$A$21</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D111</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{015ED85F-51F1-4863-B6AE-D7E3E8212718}">
-          <x14:formula1>
-            <xm:f>misc!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B30</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:O19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
@@ -1776,67 +2297,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>136</v>
+      <c r="F1" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1844,296 +2365,158 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
+        <v>160</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>75</v>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>9</v>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>9</v>
+      <c r="C6">
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6">
+        <v>169</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>9</v>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7">
+        <v>170</v>
+      </c>
+      <c r="G7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>85</v>
+      <c r="C8">
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8">
+        <v>171</v>
+      </c>
+      <c r="G8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>85</v>
+      <c r="C9">
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19">
+        <v>172</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB5D3CB-EFCB-4CB0-B19C-D9064146FDFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
+      <c r="A1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>34970</v>
@@ -2141,7 +2524,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B3">
         <v>34980</v>
@@ -2149,32 +2532,32 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITLOAIT\Documents\GitHub\OrionLogger\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F01D68D-6B59-4435-B156-EDC070C84752}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B341D93-D760-4531-BCD4-0C4F3248278B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,12 +43,6 @@
     <t>PERCORSO OUTPUT</t>
   </si>
   <si>
-    <t>Inverter</t>
-  </si>
-  <si>
-    <t>Cetr</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -100,9 +94,6 @@
     <t>TYPE TELEMETRIA</t>
   </si>
   <si>
-    <t>10.21.36.254</t>
-  </si>
-  <si>
     <t>502</t>
   </si>
   <si>
@@ -118,9 +109,6 @@
     <t>T</t>
   </si>
   <si>
-    <t>10.21.36.2</t>
-  </si>
-  <si>
     <t>MeterX L1voltage</t>
   </si>
   <si>
@@ -722,6 +710,18 @@
   </si>
   <si>
     <t>ID_LETTURA COL50</t>
+  </si>
+  <si>
+    <t>ProvaCol</t>
+  </si>
+  <si>
+    <t>Colonnina</t>
+  </si>
+  <si>
+    <t>10.21.36.120</t>
+  </si>
+  <si>
+    <t>10.21.36.188</t>
   </si>
 </sst>
 </file>
@@ -1230,9 +1230,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
@@ -1253,16 +1262,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1291,58 +1300,58 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1355,7 +1364,7 @@
   <dimension ref="A1:BE19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1372,198 +1381,198 @@
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>23</v>
-      </c>
       <c r="H1" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AL1" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AN1" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AO1" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AP1" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AR1" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AS1" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="AT1" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AU1" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AV1" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="AS1" s="7" t="s">
+      <c r="AW1" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="AT1" s="7" t="s">
+      <c r="AX1" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="AU1" s="7" t="s">
+      <c r="AY1" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="AV1" s="7" t="s">
+      <c r="AZ1" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="AW1" s="7" t="s">
+      <c r="BA1" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="AX1" s="7" t="s">
+      <c r="BB1" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="AY1" s="7" t="s">
+      <c r="BC1" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="AZ1" s="7" t="s">
+      <c r="BD1" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="BA1" s="7" t="s">
+      <c r="BE1" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="BB1" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="BC1" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="BD1" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="BE1" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1574,25 +1583,25 @@
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="B3">
         <v>502</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1603,13 +1612,13 @@
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1620,13 +1629,13 @@
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1637,13 +1646,13 @@
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1654,13 +1663,13 @@
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1671,13 +1680,13 @@
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1688,13 +1697,13 @@
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1705,13 +1714,13 @@
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1722,13 +1731,13 @@
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1739,13 +1748,13 @@
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1756,13 +1765,13 @@
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1773,13 +1782,13 @@
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1790,13 +1799,13 @@
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1807,13 +1816,13 @@
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1824,13 +1833,13 @@
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1841,13 +1850,13 @@
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1858,13 +1867,13 @@
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1876,7 +1885,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1901,186 +1910,186 @@
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AL1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AN1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AO1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AP1" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AR1" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AS1" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="AT1" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AU1" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AV1" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="AS1" s="7" t="s">
+      <c r="AW1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AT1" s="7" t="s">
+      <c r="AX1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AU1" s="7" t="s">
+      <c r="AY1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="AV1" s="7" t="s">
+      <c r="AZ1" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="AW1" s="7" t="s">
+      <c r="BA1" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="AX1" s="7" t="s">
+      <c r="BB1" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AY1" s="7" t="s">
+      <c r="BC1" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="AZ1" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="BA1" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="BB1" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="BC1" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B2">
         <v>2109122760</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2088,19 +2097,19 @@
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B3">
         <v>2109122761</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2111,13 +2120,13 @@
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2125,13 +2134,13 @@
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2167,37 +2176,37 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
@@ -2212,13 +2221,13 @@
         <v>34970</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2232,13 +2241,13 @@
         <v>34970</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2249,10 +2258,10 @@
         <v>201</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2263,10 +2272,10 @@
         <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2298,66 +2307,66 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2365,19 +2374,19 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" t="s">
         <v>160</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E3" t="s">
-        <v>164</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2388,10 +2397,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2402,10 +2411,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2416,10 +2425,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2430,10 +2439,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2444,10 +2453,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -2458,10 +2467,10 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2489,13 +2498,13 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -2516,7 +2525,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>34970</v>
@@ -2524,7 +2533,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B3">
         <v>34980</v>
@@ -2532,32 +2541,32 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -8,18 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITLOAIT\Documents\GitHub\OrionLogger\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BF9908-A008-4B00-97C9-31DB687B2492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDD2B6A-DDDE-4D64-9115-CD4FB2489B4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Strumenti" sheetId="4" r:id="rId1"/>
-    <sheet name="Bridge" sheetId="2" r:id="rId2"/>
-    <sheet name="Colonnina" sheetId="1" r:id="rId3"/>
-    <sheet name="Inverter" sheetId="5" r:id="rId4"/>
-    <sheet name="Agilent" sheetId="6" r:id="rId5"/>
-    <sheet name="Wattmeter" sheetId="7" r:id="rId6"/>
-    <sheet name="misc" sheetId="8" r:id="rId7"/>
+    <sheet name="Test" sheetId="9" r:id="rId2"/>
+    <sheet name="Comandi" sheetId="10" r:id="rId3"/>
+    <sheet name="Bridge" sheetId="2" r:id="rId4"/>
+    <sheet name="Colonnina" sheetId="1" r:id="rId5"/>
+    <sheet name="Inverter" sheetId="5" r:id="rId6"/>
+    <sheet name="Agilent" sheetId="6" r:id="rId7"/>
+    <sheet name="Wattmeter" sheetId="7" r:id="rId8"/>
+    <sheet name="WT210" sheetId="11" r:id="rId9"/>
+    <sheet name="WT230" sheetId="12" r:id="rId10"/>
+    <sheet name="WT500" sheetId="13" r:id="rId11"/>
+    <sheet name="WT1800" sheetId="14" r:id="rId12"/>
+    <sheet name="WT3000" sheetId="15" r:id="rId13"/>
+    <sheet name="misc" sheetId="8" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="254">
   <si>
     <t>IP</t>
   </si>
@@ -663,13 +670,148 @@
   </si>
   <si>
     <t>10.38.34.226</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>CICLO</t>
+  </si>
+  <si>
+    <t>CC_PORTA</t>
+  </si>
+  <si>
+    <t>CC_ID</t>
+  </si>
+  <si>
+    <t>ALIMENTATORE_PORTA</t>
+  </si>
+  <si>
+    <t>ALIMENTATORE _CURVA</t>
+  </si>
+  <si>
+    <t>ALIMENTATORE _CURVAID</t>
+  </si>
+  <si>
+    <t>ARDUINO_PORTA</t>
+  </si>
+  <si>
+    <t>INV_PORTA</t>
+  </si>
+  <si>
+    <t>COL_PORTA</t>
+  </si>
+  <si>
+    <t>Manuale</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>COM4</t>
+  </si>
+  <si>
+    <t>Weiss</t>
+  </si>
+  <si>
+    <t>GPIB0::18::INSTR</t>
+  </si>
+  <si>
+    <t>COM3</t>
+  </si>
+  <si>
+    <t>GPIB0::28::INSTR</t>
+  </si>
+  <si>
+    <t>TEMPO</t>
+  </si>
+  <si>
+    <t>CC_ON/OFF</t>
+  </si>
+  <si>
+    <t>CC_set point T</t>
+  </si>
+  <si>
+    <t>CC_set point H</t>
+  </si>
+  <si>
+    <t>ALIM_ON/OFF</t>
+  </si>
+  <si>
+    <t>ALIM_VOLT</t>
+  </si>
+  <si>
+    <t>ALIM_CURR</t>
+  </si>
+  <si>
+    <t>ALIM_POW</t>
+  </si>
+  <si>
+    <t>ALIM_CURVA</t>
+  </si>
+  <si>
+    <t>ALIM_CURVAID</t>
+  </si>
+  <si>
+    <t>ARDU_RELAY1</t>
+  </si>
+  <si>
+    <t>ARDU_RELAY2</t>
+  </si>
+  <si>
+    <t>ARDU_RELAY3</t>
+  </si>
+  <si>
+    <t>ARDU_RELAY4</t>
+  </si>
+  <si>
+    <t>ARDU_RELAY5</t>
+  </si>
+  <si>
+    <t>ARDU_RELAY6</t>
+  </si>
+  <si>
+    <t>ARDU_RELAY7</t>
+  </si>
+  <si>
+    <t>ARDU_RELAY8</t>
+  </si>
+  <si>
+    <t>INV_VAR</t>
+  </si>
+  <si>
+    <t>INV_VAL</t>
+  </si>
+  <si>
+    <t>COL_VAR</t>
+  </si>
+  <si>
+    <t>COL_VAL</t>
+  </si>
+  <si>
+    <t>Automatico</t>
+  </si>
+  <si>
+    <t>Tipologia test</t>
+  </si>
+  <si>
+    <t>WT210</t>
+  </si>
+  <si>
+    <t>Tipologia Wattmeter 3000</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Ciclo del test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -713,6 +855,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -728,7 +883,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -811,11 +966,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -869,11 +1123,216 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1222,7 +1681,2543 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DB29DF-46CB-4654-B742-99D57A3C20F3}">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="32">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="32">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="32">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="32">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="32">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A29">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2F4A15F-9B4C-4BE7-AADB-0D1887E2B3BB}">
+          <x14:formula1>
+            <xm:f>misc!$M$2:$M$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B30</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D2F1A4-F8F3-428B-8FD2-7662C867070C}">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A107">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{121769B0-374E-43E2-A0A6-74A3E72F1E3C}">
+          <x14:formula1>
+            <xm:f>misc!$M$11:$M$37</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B33</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8797F13-171C-4B23-914D-A8D6D1B2669B}">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A110"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A110">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{79F811C6-4361-4A70-AC0A-7D3B03B479FA}">
+          <x14:formula1>
+            <xm:f>misc!$M$11:$M$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B175</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF613A1-E12D-4427-A4DF-EFEA2CEAF87B}">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A319">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EBF58FA0-8C94-4CD3-9946-41A58F5ADB18}">
+          <x14:formula1>
+            <xm:f>misc!$N$2:$N$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B77</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB5D3CB-EFCB-4CB0-B19C-D9064146FDFD}">
+  <dimension ref="A1:P59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="15">
+        <v>34970</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="K2" s="15">
+        <v>1</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="15">
+        <v>34980</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="15">
+        <v>2</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="15">
+        <v>2</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="K4" s="15">
+        <v>3</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="15">
+        <v>4</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="15">
+        <v>4</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6"/>
+      <c r="K6" s="15">
+        <v>5</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7"/>
+      <c r="K7" s="15">
+        <v>6</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8"/>
+      <c r="M8" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9"/>
+      <c r="M9" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C10" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="H10"/>
+      <c r="M10" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C11" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11"/>
+      <c r="M11" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C12" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12"/>
+      <c r="M12" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C13" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13"/>
+      <c r="M13" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C14" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14"/>
+      <c r="M14" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C15" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15"/>
+      <c r="M15" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C16" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="H16"/>
+      <c r="M16" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C17" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17"/>
+      <c r="M17" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C18" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18"/>
+      <c r="M18" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C19" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19"/>
+      <c r="M19" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C20" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C21" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C22" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C23" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C24" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="M25" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="M26" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="M27" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="M28" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="M29" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="M30" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="M31" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="M32" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M33" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M34" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M35" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M36" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M37" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M38" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M39" s="15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M40"/>
+    </row>
+    <row r="41" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M41"/>
+    </row>
+    <row r="42" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M42"/>
+    </row>
+    <row r="43" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M43"/>
+    </row>
+    <row r="44" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M44"/>
+    </row>
+    <row r="45" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M45"/>
+    </row>
+    <row r="46" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M46"/>
+    </row>
+    <row r="47" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M47"/>
+    </row>
+    <row r="48" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M48"/>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M49"/>
+    </row>
+    <row r="50" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M50"/>
+    </row>
+    <row r="51" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M51"/>
+    </row>
+    <row r="52" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M52"/>
+    </row>
+    <row r="53" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M53"/>
+    </row>
+    <row r="54" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M54"/>
+    </row>
+    <row r="55" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M55"/>
+    </row>
+    <row r="56" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M56"/>
+    </row>
+    <row r="57" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M57"/>
+    </row>
+    <row r="58" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M58"/>
+    </row>
+    <row r="59" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M59"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D550BD10-A4B3-4F75-8C47-FD80B050EFCA}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="21">
+        <v>1</v>
+      </c>
+      <c r="G2" s="21">
+        <v>2</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{092AFE7D-24F1-46DC-8981-9BB1C820DD6D}">
+          <x14:formula1>
+            <xm:f>misc!$L$2:$L$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5C393C70-813A-4F24-80F5-69CB900F2F25}">
+          <x14:formula1>
+            <xm:f>misc!$O$2:$O$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9D6AA9-99C2-472D-B572-8855380BD910}">
+  <dimension ref="A1:V16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="29">
+        <v>15</v>
+      </c>
+      <c r="B2" s="29">
+        <v>2</v>
+      </c>
+      <c r="C2" s="29">
+        <v>0</v>
+      </c>
+      <c r="D2" s="29">
+        <v>0</v>
+      </c>
+      <c r="E2" s="29">
+        <v>2</v>
+      </c>
+      <c r="F2" s="29">
+        <v>610</v>
+      </c>
+      <c r="G2" s="29">
+        <v>1</v>
+      </c>
+      <c r="H2" s="29">
+        <v>100</v>
+      </c>
+      <c r="I2" s="29">
+        <v>0</v>
+      </c>
+      <c r="J2" s="29">
+        <v>0</v>
+      </c>
+      <c r="K2" s="29">
+        <v>2</v>
+      </c>
+      <c r="L2" s="29">
+        <v>0</v>
+      </c>
+      <c r="M2" s="29">
+        <v>2</v>
+      </c>
+      <c r="N2" s="29">
+        <v>2</v>
+      </c>
+      <c r="O2" s="29">
+        <v>2</v>
+      </c>
+      <c r="P2" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="29">
+        <v>2</v>
+      </c>
+      <c r="R2" s="29">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="29">
+        <v>10</v>
+      </c>
+      <c r="B3" s="29">
+        <v>2</v>
+      </c>
+      <c r="C3" s="29">
+        <v>0</v>
+      </c>
+      <c r="D3" s="29">
+        <v>0</v>
+      </c>
+      <c r="E3" s="29">
+        <v>2</v>
+      </c>
+      <c r="F3" s="29">
+        <v>610</v>
+      </c>
+      <c r="G3" s="29">
+        <v>1</v>
+      </c>
+      <c r="H3" s="29">
+        <v>100</v>
+      </c>
+      <c r="I3" s="29">
+        <v>0</v>
+      </c>
+      <c r="J3" s="29">
+        <v>0</v>
+      </c>
+      <c r="K3" s="29">
+        <v>0</v>
+      </c>
+      <c r="L3" s="29">
+        <v>2</v>
+      </c>
+      <c r="M3" s="29">
+        <v>2</v>
+      </c>
+      <c r="N3" s="29">
+        <v>2</v>
+      </c>
+      <c r="O3" s="29">
+        <v>0</v>
+      </c>
+      <c r="P3" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="29">
+        <v>2</v>
+      </c>
+      <c r="R3" s="29">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="29">
+        <v>10</v>
+      </c>
+      <c r="B4" s="29">
+        <v>2</v>
+      </c>
+      <c r="C4" s="29">
+        <v>0</v>
+      </c>
+      <c r="D4" s="29">
+        <v>0</v>
+      </c>
+      <c r="E4" s="29">
+        <v>2</v>
+      </c>
+      <c r="F4" s="29">
+        <v>610</v>
+      </c>
+      <c r="G4" s="29">
+        <v>1</v>
+      </c>
+      <c r="H4" s="29">
+        <v>100</v>
+      </c>
+      <c r="I4" s="29">
+        <v>0</v>
+      </c>
+      <c r="J4" s="29">
+        <v>0</v>
+      </c>
+      <c r="K4" s="29">
+        <v>2</v>
+      </c>
+      <c r="L4" s="29">
+        <v>2</v>
+      </c>
+      <c r="M4" s="29">
+        <v>2</v>
+      </c>
+      <c r="N4" s="29">
+        <v>2</v>
+      </c>
+      <c r="O4" s="29">
+        <v>1</v>
+      </c>
+      <c r="P4" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="29">
+        <v>2</v>
+      </c>
+      <c r="R4" s="29">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="29">
+        <v>10</v>
+      </c>
+      <c r="B5" s="29">
+        <v>2</v>
+      </c>
+      <c r="C5" s="29">
+        <v>0</v>
+      </c>
+      <c r="D5" s="29">
+        <v>0</v>
+      </c>
+      <c r="E5" s="29">
+        <v>2</v>
+      </c>
+      <c r="F5" s="29">
+        <v>610</v>
+      </c>
+      <c r="G5" s="29">
+        <v>1</v>
+      </c>
+      <c r="H5" s="29">
+        <v>100</v>
+      </c>
+      <c r="I5" s="29">
+        <v>0</v>
+      </c>
+      <c r="J5" s="29">
+        <v>0</v>
+      </c>
+      <c r="K5" s="29">
+        <v>1</v>
+      </c>
+      <c r="L5" s="29">
+        <v>2</v>
+      </c>
+      <c r="M5" s="29">
+        <v>2</v>
+      </c>
+      <c r="N5" s="29">
+        <v>2</v>
+      </c>
+      <c r="O5" s="29">
+        <v>2</v>
+      </c>
+      <c r="P5" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="29">
+        <v>2</v>
+      </c>
+      <c r="R5" s="29">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="30">
+        <v>10</v>
+      </c>
+      <c r="B6" s="29">
+        <v>2</v>
+      </c>
+      <c r="C6" s="29">
+        <v>0</v>
+      </c>
+      <c r="D6" s="29">
+        <v>0</v>
+      </c>
+      <c r="E6" s="30">
+        <v>2</v>
+      </c>
+      <c r="F6" s="29">
+        <v>610</v>
+      </c>
+      <c r="G6" s="29">
+        <v>1</v>
+      </c>
+      <c r="H6" s="29">
+        <v>100</v>
+      </c>
+      <c r="I6" s="29">
+        <v>0</v>
+      </c>
+      <c r="J6" s="29">
+        <v>0</v>
+      </c>
+      <c r="K6" s="29">
+        <v>2</v>
+      </c>
+      <c r="L6" s="29">
+        <v>2</v>
+      </c>
+      <c r="M6" s="31">
+        <v>2</v>
+      </c>
+      <c r="N6" s="31">
+        <v>2</v>
+      </c>
+      <c r="O6" s="31">
+        <v>2</v>
+      </c>
+      <c r="P6" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="31">
+        <v>2</v>
+      </c>
+      <c r="R6" s="29">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="31">
+        <v>30</v>
+      </c>
+      <c r="B7" s="29">
+        <v>2</v>
+      </c>
+      <c r="C7" s="29">
+        <v>0</v>
+      </c>
+      <c r="D7" s="29">
+        <v>0</v>
+      </c>
+      <c r="E7" s="31">
+        <v>2</v>
+      </c>
+      <c r="F7" s="29">
+        <v>610</v>
+      </c>
+      <c r="G7" s="29">
+        <v>1</v>
+      </c>
+      <c r="H7" s="29">
+        <v>100</v>
+      </c>
+      <c r="I7" s="29">
+        <v>0</v>
+      </c>
+      <c r="J7" s="29">
+        <v>0</v>
+      </c>
+      <c r="K7" s="29">
+        <v>2</v>
+      </c>
+      <c r="L7" s="29">
+        <v>1</v>
+      </c>
+      <c r="M7" s="31">
+        <v>2</v>
+      </c>
+      <c r="N7" s="31">
+        <v>2</v>
+      </c>
+      <c r="O7" s="31">
+        <v>2</v>
+      </c>
+      <c r="P7" s="31">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="31">
+        <v>2</v>
+      </c>
+      <c r="R7" s="29">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
+        <v>75</v>
+      </c>
+      <c r="B8" s="29">
+        <v>2</v>
+      </c>
+      <c r="C8" s="29">
+        <v>0</v>
+      </c>
+      <c r="D8" s="29">
+        <v>0</v>
+      </c>
+      <c r="E8" s="31">
+        <v>2</v>
+      </c>
+      <c r="F8" s="29">
+        <v>610</v>
+      </c>
+      <c r="G8" s="29">
+        <v>15</v>
+      </c>
+      <c r="H8" s="29">
+        <v>20000</v>
+      </c>
+      <c r="I8" s="29">
+        <v>0</v>
+      </c>
+      <c r="J8" s="29">
+        <v>0</v>
+      </c>
+      <c r="K8" s="29">
+        <v>2</v>
+      </c>
+      <c r="L8" s="29">
+        <v>2</v>
+      </c>
+      <c r="M8" s="29">
+        <v>2</v>
+      </c>
+      <c r="N8" s="29">
+        <v>2</v>
+      </c>
+      <c r="O8" s="29">
+        <v>2</v>
+      </c>
+      <c r="P8" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="29">
+        <v>2</v>
+      </c>
+      <c r="R8" s="29">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>15</v>
+      </c>
+      <c r="B9" s="29">
+        <v>2</v>
+      </c>
+      <c r="C9" s="29">
+        <v>0</v>
+      </c>
+      <c r="D9" s="29">
+        <v>0</v>
+      </c>
+      <c r="E9" s="31">
+        <v>2</v>
+      </c>
+      <c r="F9" s="29">
+        <v>610</v>
+      </c>
+      <c r="G9" s="29">
+        <v>28</v>
+      </c>
+      <c r="H9" s="29">
+        <v>20000</v>
+      </c>
+      <c r="I9" s="29">
+        <v>0</v>
+      </c>
+      <c r="J9" s="29">
+        <v>0</v>
+      </c>
+      <c r="K9" s="29">
+        <v>2</v>
+      </c>
+      <c r="L9" s="29">
+        <v>2</v>
+      </c>
+      <c r="M9" s="29">
+        <v>2</v>
+      </c>
+      <c r="N9" s="29">
+        <v>2</v>
+      </c>
+      <c r="O9" s="29">
+        <v>2</v>
+      </c>
+      <c r="P9" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="29">
+        <v>2</v>
+      </c>
+      <c r="R9" s="29">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>2</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
+        <v>60</v>
+      </c>
+      <c r="B10" s="29">
+        <v>2</v>
+      </c>
+      <c r="C10" s="29">
+        <v>0</v>
+      </c>
+      <c r="D10" s="29">
+        <v>0</v>
+      </c>
+      <c r="E10" s="31">
+        <v>2</v>
+      </c>
+      <c r="F10" s="29">
+        <v>610</v>
+      </c>
+      <c r="G10" s="29">
+        <v>35</v>
+      </c>
+      <c r="H10" s="29">
+        <v>20000</v>
+      </c>
+      <c r="I10" s="29">
+        <v>0</v>
+      </c>
+      <c r="J10" s="29">
+        <v>0</v>
+      </c>
+      <c r="K10" s="29">
+        <v>2</v>
+      </c>
+      <c r="L10" s="29">
+        <v>2</v>
+      </c>
+      <c r="M10" s="29">
+        <v>2</v>
+      </c>
+      <c r="N10" s="29">
+        <v>2</v>
+      </c>
+      <c r="O10" s="29">
+        <v>2</v>
+      </c>
+      <c r="P10" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="29">
+        <v>2</v>
+      </c>
+      <c r="R10" s="29">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="29">
+        <v>5</v>
+      </c>
+      <c r="B11" s="29">
+        <v>2</v>
+      </c>
+      <c r="C11" s="29">
+        <v>0</v>
+      </c>
+      <c r="D11" s="29">
+        <v>0</v>
+      </c>
+      <c r="E11" s="31">
+        <v>2</v>
+      </c>
+      <c r="F11" s="29">
+        <v>610</v>
+      </c>
+      <c r="G11" s="29">
+        <v>1</v>
+      </c>
+      <c r="H11" s="29">
+        <v>100</v>
+      </c>
+      <c r="I11" s="29">
+        <v>0</v>
+      </c>
+      <c r="J11" s="29">
+        <v>0</v>
+      </c>
+      <c r="K11" s="29">
+        <v>2</v>
+      </c>
+      <c r="L11" s="29">
+        <v>2</v>
+      </c>
+      <c r="M11" s="29">
+        <v>2</v>
+      </c>
+      <c r="N11" s="29">
+        <v>2</v>
+      </c>
+      <c r="O11" s="29">
+        <v>2</v>
+      </c>
+      <c r="P11" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="29">
+        <v>2</v>
+      </c>
+      <c r="R11" s="29">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="29">
+        <v>5</v>
+      </c>
+      <c r="B12" s="29">
+        <v>2</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0</v>
+      </c>
+      <c r="E12" s="31">
+        <v>2</v>
+      </c>
+      <c r="F12" s="29">
+        <v>610</v>
+      </c>
+      <c r="G12" s="29">
+        <v>1</v>
+      </c>
+      <c r="H12" s="29">
+        <v>100</v>
+      </c>
+      <c r="I12" s="29">
+        <v>0</v>
+      </c>
+      <c r="J12" s="29">
+        <v>0</v>
+      </c>
+      <c r="K12" s="29">
+        <v>2</v>
+      </c>
+      <c r="L12" s="29">
+        <v>2</v>
+      </c>
+      <c r="M12" s="29">
+        <v>2</v>
+      </c>
+      <c r="N12" s="29">
+        <v>2</v>
+      </c>
+      <c r="O12" s="29">
+        <v>2</v>
+      </c>
+      <c r="P12" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="29">
+        <v>2</v>
+      </c>
+      <c r="R12" s="29">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="29">
+        <v>5</v>
+      </c>
+      <c r="B13" s="29">
+        <v>2</v>
+      </c>
+      <c r="C13" s="29">
+        <v>0</v>
+      </c>
+      <c r="D13" s="29">
+        <v>0</v>
+      </c>
+      <c r="E13" s="31">
+        <v>2</v>
+      </c>
+      <c r="F13" s="29">
+        <v>610</v>
+      </c>
+      <c r="G13" s="29">
+        <v>1</v>
+      </c>
+      <c r="H13" s="29">
+        <v>100</v>
+      </c>
+      <c r="I13" s="29">
+        <v>0</v>
+      </c>
+      <c r="J13" s="29">
+        <v>0</v>
+      </c>
+      <c r="K13" s="29">
+        <v>2</v>
+      </c>
+      <c r="L13" s="29">
+        <v>0</v>
+      </c>
+      <c r="M13" s="29">
+        <v>2</v>
+      </c>
+      <c r="N13" s="29">
+        <v>2</v>
+      </c>
+      <c r="O13" s="29">
+        <v>2</v>
+      </c>
+      <c r="P13" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="29">
+        <v>2</v>
+      </c>
+      <c r="R13" s="29">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>2</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="29">
+        <v>5</v>
+      </c>
+      <c r="B14" s="29">
+        <v>2</v>
+      </c>
+      <c r="C14" s="29">
+        <v>0</v>
+      </c>
+      <c r="D14" s="29">
+        <v>0</v>
+      </c>
+      <c r="E14" s="29">
+        <v>2</v>
+      </c>
+      <c r="F14" s="29">
+        <v>610</v>
+      </c>
+      <c r="G14" s="29">
+        <v>1</v>
+      </c>
+      <c r="H14" s="29">
+        <v>100</v>
+      </c>
+      <c r="I14" s="29">
+        <v>0</v>
+      </c>
+      <c r="J14" s="29">
+        <v>0</v>
+      </c>
+      <c r="K14" s="29">
+        <v>2</v>
+      </c>
+      <c r="L14" s="29">
+        <v>2</v>
+      </c>
+      <c r="M14" s="29">
+        <v>2</v>
+      </c>
+      <c r="N14" s="29">
+        <v>2</v>
+      </c>
+      <c r="O14" s="29">
+        <v>0</v>
+      </c>
+      <c r="P14" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="29">
+        <v>2</v>
+      </c>
+      <c r="R14" s="29">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="30">
+        <v>5</v>
+      </c>
+      <c r="B15" s="29">
+        <v>2</v>
+      </c>
+      <c r="C15" s="29">
+        <v>0</v>
+      </c>
+      <c r="D15" s="29">
+        <v>0</v>
+      </c>
+      <c r="E15" s="30">
+        <v>2</v>
+      </c>
+      <c r="F15" s="29">
+        <v>610</v>
+      </c>
+      <c r="G15" s="29">
+        <v>1</v>
+      </c>
+      <c r="H15" s="29">
+        <v>100</v>
+      </c>
+      <c r="I15" s="29">
+        <v>0</v>
+      </c>
+      <c r="J15" s="29">
+        <v>0</v>
+      </c>
+      <c r="K15" s="29">
+        <v>0</v>
+      </c>
+      <c r="L15" s="29">
+        <v>2</v>
+      </c>
+      <c r="M15" s="31">
+        <v>2</v>
+      </c>
+      <c r="N15" s="31">
+        <v>2</v>
+      </c>
+      <c r="O15" s="31">
+        <v>2</v>
+      </c>
+      <c r="P15" s="31">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="31">
+        <v>2</v>
+      </c>
+      <c r="R15" s="29">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="V15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="29">
+        <v>1800</v>
+      </c>
+      <c r="B16" s="29">
+        <v>2</v>
+      </c>
+      <c r="C16" s="29">
+        <v>0</v>
+      </c>
+      <c r="D16" s="29">
+        <v>0</v>
+      </c>
+      <c r="E16" s="29">
+        <v>2</v>
+      </c>
+      <c r="F16" s="29">
+        <v>610</v>
+      </c>
+      <c r="G16" s="29">
+        <v>1</v>
+      </c>
+      <c r="H16" s="29">
+        <v>100</v>
+      </c>
+      <c r="I16" s="29">
+        <v>0</v>
+      </c>
+      <c r="J16" s="29">
+        <v>0</v>
+      </c>
+      <c r="K16" s="29">
+        <v>2</v>
+      </c>
+      <c r="L16" s="29">
+        <v>2</v>
+      </c>
+      <c r="M16" s="29">
+        <v>2</v>
+      </c>
+      <c r="N16" s="29">
+        <v>2</v>
+      </c>
+      <c r="O16" s="29">
+        <v>2</v>
+      </c>
+      <c r="P16" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="29">
+        <v>2</v>
+      </c>
+      <c r="R16" s="29">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K2:Q2 K12:Q15 K8:P8 K4:Q7">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q8 R2:R15">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:Q3">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:Q11">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:P9">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q9">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10:P10">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q10">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:Q16">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R16">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E16">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="greaterThan">
+      <formula>1.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B16">
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="greaterThan">
+      <formula>1.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -1333,7 +4328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
@@ -1761,11 +4756,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
@@ -1900,7 +4895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
@@ -2047,12 +5042,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2073,45 +5068,19 @@
       <c r="B1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>99</v>
-      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2120,18 +5089,6 @@
       <c r="B2" t="s">
         <v>122</v>
       </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2139,66 +5096,6 @@
       </c>
       <c r="B3" t="s">
         <v>122</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2206,22 +5103,16 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{22208D65-E0A0-44C5-90DA-CA85BDE8CC8D}">
           <x14:formula1>
             <xm:f>misc!$J$2:$J$7</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B20</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{521E8A55-1470-4FF9-B9A0-10051A2C8932}">
-          <x14:formula1>
-            <xm:f>misc!$K$2:$K$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C20</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ED656995-BCA4-4403-8563-AA4A2B9634CF}">
           <x14:formula1>
-            <xm:f>misc!$L$2:$L$39</xm:f>
+            <xm:f>misc!$M$2:$M$39</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D20</xm:sqref>
         </x14:dataValidation>
@@ -2231,531 +5122,141 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB5D3CB-EFCB-4CB0-B19C-D9064146FDFD}">
-  <dimension ref="A1:S59"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13E0CB9-F06A-4A40-A4C0-E6699137ABF8}">
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="15"/>
+    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="15">
-        <v>34970</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" s="15">
-        <v>0</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="K2" s="15">
-        <v>1</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="15">
-        <v>34980</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="E3" s="15">
-        <v>1</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="G3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="K3" s="15">
-        <v>2</v>
-      </c>
-      <c r="L3" s="15" t="s">
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="E4" s="15">
-        <v>2</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="K4" s="15">
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="B4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="15">
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="32">
         <v>4</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="K5" s="15">
-        <v>4</v>
-      </c>
-      <c r="L5" s="15" t="s">
+      <c r="B5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="H6"/>
-      <c r="K6" s="15">
-        <v>5</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="H7"/>
-      <c r="K7" s="15">
-        <v>6</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="H8"/>
-      <c r="L8" s="15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="H9"/>
-      <c r="L9" s="15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C10" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="H10"/>
-      <c r="L10" s="15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C11" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="H11"/>
-      <c r="L11" s="15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C12" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="H12"/>
-      <c r="L12" s="15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C13" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="H13"/>
-      <c r="L13" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C14" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="H14"/>
-      <c r="L14" s="15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C15" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="H15"/>
-      <c r="L15" s="15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C16" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="H16"/>
-      <c r="L16" s="15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C17" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="H17"/>
-      <c r="L17" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C18" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H18"/>
-      <c r="L18" s="15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C19" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="H19"/>
-      <c r="L19" s="15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C20" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C21" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C22" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C23" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C24" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="L25" s="15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="L26" s="15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="L27" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="L28" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="L29" s="15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="L30" s="15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="L31" s="15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="L32" s="15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L33" s="15" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L34" s="15" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L35" s="15" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="36" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L36" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L37" s="15" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="38" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L38" s="15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="39" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L39" s="15" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="40" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L40"/>
-    </row>
-    <row r="41" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L41"/>
-    </row>
-    <row r="42" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L42"/>
-    </row>
-    <row r="43" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L43"/>
-    </row>
-    <row r="44" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L44"/>
-    </row>
-    <row r="45" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L45"/>
-    </row>
-    <row r="46" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L46"/>
-    </row>
-    <row r="47" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L47"/>
-    </row>
-    <row r="48" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L48"/>
-    </row>
-    <row r="49" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L49"/>
-    </row>
-    <row r="50" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L50"/>
-    </row>
-    <row r="51" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L51"/>
-    </row>
-    <row r="52" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L52"/>
-    </row>
-    <row r="53" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L53"/>
-    </row>
-    <row r="54" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L54"/>
-    </row>
-    <row r="55" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L55"/>
-    </row>
-    <row r="56" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L56"/>
-    </row>
-    <row r="57" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L57"/>
-    </row>
-    <row r="58" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L58"/>
-    </row>
-    <row r="59" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L59"/>
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <conditionalFormatting sqref="A2:A413">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+      <formula>255</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{23F37136-DE89-48E2-8DC3-7E35A880E178}">
+          <x14:formula1>
+            <xm:f>misc!$M$2:$M$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B47</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITLOAIT\Documents\GitHub\OrionLogger\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDD2B6A-DDDE-4D64-9115-CD4FB2489B4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1481E925-FD5F-4F4B-960F-8E86B3014AFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Strumenti" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="259">
   <si>
     <t>IP</t>
   </si>
@@ -805,6 +805,21 @@
   </si>
   <si>
     <t>Ciclo del test</t>
+  </si>
+  <si>
+    <t>AC_PORTA</t>
+  </si>
+  <si>
+    <t>AC_ON/OFF</t>
+  </si>
+  <si>
+    <t>AC_REGEN</t>
+  </si>
+  <si>
+    <t>AC_VOUT</t>
+  </si>
+  <si>
+    <t>AC_FREQ</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1176,17 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1853,7 +1878,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A29">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2009,7 +2034,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A107">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2165,7 +2190,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A110">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2321,7 +2346,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A319">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2345,7 +2370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB5D3CB-EFCB-4CB0-B19C-D9064146FDFD}">
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -2938,10 +2963,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D550BD10-A4B3-4F75-8C47-FD80B050EFCA}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2956,9 +2981,10 @@
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>209</v>
       </c>
@@ -2989,8 +3015,11 @@
       <c r="J1" s="20" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>219</v>
       </c>
@@ -3018,7 +3047,7 @@
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
       <c r="D3" s="21"/>
@@ -3056,15 +3085,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9D6AA9-99C2-472D-B572-8855380BD910}">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>226</v>
       </c>
@@ -3131,8 +3166,20 @@
       <c r="V1" s="20" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W1" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="29">
         <v>15</v>
       </c>
@@ -3199,8 +3246,20 @@
       <c r="V2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W2" s="29">
+        <v>2</v>
+      </c>
+      <c r="X2" s="29">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="29">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="29">
         <v>10</v>
       </c>
@@ -3267,8 +3326,20 @@
       <c r="V3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W3" s="29">
+        <v>2</v>
+      </c>
+      <c r="X3" s="29">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="29">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="29">
         <v>10</v>
       </c>
@@ -3335,8 +3406,20 @@
       <c r="V4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W4" s="29">
+        <v>2</v>
+      </c>
+      <c r="X4" s="29">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="29">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <v>10</v>
       </c>
@@ -3403,8 +3486,20 @@
       <c r="V5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W5" s="29">
+        <v>2</v>
+      </c>
+      <c r="X5" s="29">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="29">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="30">
         <v>10</v>
       </c>
@@ -3471,8 +3566,20 @@
       <c r="V6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W6" s="29">
+        <v>2</v>
+      </c>
+      <c r="X6" s="29">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="29">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="31">
         <v>30</v>
       </c>
@@ -3539,8 +3646,20 @@
       <c r="V7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W7" s="29">
+        <v>2</v>
+      </c>
+      <c r="X7" s="29">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="29">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
         <v>75</v>
       </c>
@@ -3607,8 +3726,20 @@
       <c r="V8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W8" s="29">
+        <v>2</v>
+      </c>
+      <c r="X8" s="29">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="29">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="31">
         <v>15</v>
       </c>
@@ -3675,8 +3806,20 @@
       <c r="V9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W9" s="29">
+        <v>2</v>
+      </c>
+      <c r="X9" s="29">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="29">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="31">
         <v>60</v>
       </c>
@@ -3743,8 +3886,20 @@
       <c r="V10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W10" s="29">
+        <v>2</v>
+      </c>
+      <c r="X10" s="29">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="29">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
         <v>5</v>
       </c>
@@ -3811,8 +3966,20 @@
       <c r="V11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W11" s="29">
+        <v>2</v>
+      </c>
+      <c r="X11" s="29">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="29">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="29">
         <v>5</v>
       </c>
@@ -3879,8 +4046,20 @@
       <c r="V12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W12" s="29">
+        <v>2</v>
+      </c>
+      <c r="X12" s="29">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="29">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="29">
         <v>5</v>
       </c>
@@ -3947,8 +4126,20 @@
       <c r="V13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W13" s="29">
+        <v>2</v>
+      </c>
+      <c r="X13" s="29">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="29">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="29">
         <v>5</v>
       </c>
@@ -4015,8 +4206,20 @@
       <c r="V14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W14" s="29">
+        <v>2</v>
+      </c>
+      <c r="X14" s="29">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="29">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="30">
         <v>5</v>
       </c>
@@ -4083,8 +4286,20 @@
       <c r="V15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W15" s="29">
+        <v>2</v>
+      </c>
+      <c r="X15" s="29">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="29">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="29">
         <v>1800</v>
       </c>
@@ -4151,69 +4366,87 @@
       <c r="V16">
         <v>2</v>
       </c>
+      <c r="W16" s="29">
+        <v>2</v>
+      </c>
+      <c r="X16" s="29">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="29">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="29">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2:Q2 K12:Q15 K8:P8 K4:Q7">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8 R2:R15">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:Q3">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:Q11">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:P9">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:P10">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:Q16">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E16">
-    <cfRule type="cellIs" dxfId="6" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="12" operator="greaterThan">
       <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B16">
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="greaterThan">
       <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="W2:Z16">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5241,7 +5474,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A413">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>255</formula>
     </cfRule>
   </conditionalFormatting>
